--- a/Form_DLM_SurveyReport.xlsx
+++ b/Form_DLM_SurveyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjarvis\Documents\LIBRARY\JOBS\999-MODULE_REPORT_BUILDER\Assembly-Survey-Report-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\APS-U\Assembly-Survey-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC077046-D238-4DC4-A156-F29E2498B1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1239631-55DB-46B0-A9DA-841BAC6BCD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23535" yWindow="930" windowWidth="22185" windowHeight="19455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Summary" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>NOTE:</t>
   </si>
   <si>
-    <t>M1 data is not included in the statistics reported above.</t>
-  </si>
-  <si>
     <t>Report created:</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Date Measured:</t>
+  </si>
+  <si>
+    <t>M1/M2 data is not included in the statistics reported above.</t>
   </si>
 </sst>
 </file>
@@ -914,18 +914,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
@@ -961,6 +949,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,24 +1311,24 @@
   </sheetPr>
   <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="24" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
@@ -1336,43 +1336,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="55"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="55"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="55"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="56"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="55"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="56"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="55" t="s">
         <v>2</v>
       </c>
@@ -1380,107 +1380,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="29"/>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="G17" s="72"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="68"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="F18" s="28"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="44"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="72"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="45"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
@@ -1489,7 +1489,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="45"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
@@ -1498,7 +1498,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -1507,7 +1507,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="45"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -1516,7 +1516,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="45"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
@@ -1525,7 +1525,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="45"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
@@ -1534,16 +1534,16 @@
       <c r="G32" s="36"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="46"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1552,7 +1552,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="17" t="s">
         <v>5</v>
       </c>
@@ -1568,20 +1568,20 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="69" t="e">
+      <c r="F35" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="69" t="e">
+      <c r="G35" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="69" t="e">
+      <c r="H35" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>6</v>
       </c>
@@ -1597,20 +1597,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="70">
+      <c r="F36" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="19" t="s">
         <v>7</v>
       </c>
@@ -1626,21 +1626,21 @@
         <f t="array" ref="E37">MAX(ABS(E26:E33))</f>
         <v>0</v>
       </c>
-      <c r="F37" s="71" cm="1">
+      <c r="F37" s="67" cm="1">
         <f t="array" ref="F37">MAX(ABS(F26:F33))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="71" cm="1">
+      <c r="G37" s="67" cm="1">
         <f t="array" ref="G37">MAX(ABS(G26:G33))</f>
         <v>0</v>
       </c>
-      <c r="H37" s="71" cm="1">
+      <c r="H37" s="67" cm="1">
         <f t="array" ref="H37">MAX(ABS(H26:H33))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="50">
         <f t="shared" ref="B40:H40" si="2">B25</f>
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="54"/>
       <c r="C41" s="59"/>
       <c r="D41" s="60"/>
@@ -1679,20 +1679,20 @@
       <c r="G41" s="63"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>10</v>
+      <c r="C42" s="77" t="s">
+        <v>16</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="51"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -1701,7 +1701,7 @@
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -1728,12 +1728,12 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="30" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.7265625" style="30" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" style="31" customWidth="1"/>
+    <col min="5" max="6" width="15.7265625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,865 +1748,865 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="256" width="9.140625" style="3"/>
-    <col min="257" max="257" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="259" max="260" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="256" width="9.1796875" style="3"/>
+    <col min="257" max="257" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="259" max="260" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="268" max="270" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="268" max="270" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="272" max="512" width="9.140625" style="3"/>
-    <col min="513" max="513" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="515" max="516" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="272" max="512" width="9.1796875" style="3"/>
+    <col min="513" max="513" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="515" max="516" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="518" max="519" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="518" max="519" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="521" max="522" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="524" max="526" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="521" max="522" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="524" max="526" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="527" max="527" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="528" max="768" width="9.140625" style="3"/>
-    <col min="769" max="769" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="771" max="772" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="528" max="768" width="9.1796875" style="3"/>
+    <col min="769" max="769" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="771" max="772" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="774" max="775" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="774" max="775" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="777" max="778" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="780" max="782" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="777" max="778" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="780" max="782" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="783" max="783" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="784" max="1024" width="9.140625" style="3"/>
-    <col min="1025" max="1025" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1028" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="784" max="1024" width="9.1796875" style="3"/>
+    <col min="1025" max="1025" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1028" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1031" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1031" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1034" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1038" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1034" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1038" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1039" max="1039" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="1040" max="1280" width="9.140625" style="3"/>
-    <col min="1281" max="1281" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1284" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1280" width="9.1796875" style="3"/>
+    <col min="1281" max="1281" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1284" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1287" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1287" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1290" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1294" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1290" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1294" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1295" max="1295" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="1296" max="1536" width="9.140625" style="3"/>
-    <col min="1537" max="1537" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1540" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1536" width="9.1796875" style="3"/>
+    <col min="1537" max="1537" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1540" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1543" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1543" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1546" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1550" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1546" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1550" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1551" max="1551" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="1552" max="1792" width="9.140625" style="3"/>
-    <col min="1793" max="1793" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1796" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1792" width="9.1796875" style="3"/>
+    <col min="1793" max="1793" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1796" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1799" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1799" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1802" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1806" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1802" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1806" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="1807" max="1807" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="1808" max="2048" width="9.140625" style="3"/>
-    <col min="2049" max="2049" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2052" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1808" max="2048" width="9.1796875" style="3"/>
+    <col min="2049" max="2049" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2052" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2055" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2055" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2058" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2062" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2058" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2062" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2063" max="2063" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2064" max="2304" width="9.140625" style="3"/>
-    <col min="2305" max="2305" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2308" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2304" width="9.1796875" style="3"/>
+    <col min="2305" max="2305" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2308" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2311" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2311" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2314" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2318" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2314" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2318" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2319" max="2319" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2320" max="2560" width="9.140625" style="3"/>
-    <col min="2561" max="2561" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2564" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2560" width="9.1796875" style="3"/>
+    <col min="2561" max="2561" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2564" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2567" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2567" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2570" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2574" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2570" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2574" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2575" max="2575" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2576" max="2816" width="9.140625" style="3"/>
-    <col min="2817" max="2817" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2820" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2816" width="9.1796875" style="3"/>
+    <col min="2817" max="2817" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2820" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2823" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2823" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2826" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2830" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2826" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2830" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2831" max="2831" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2832" max="3072" width="9.140625" style="3"/>
-    <col min="3073" max="3073" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3076" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2832" max="3072" width="9.1796875" style="3"/>
+    <col min="3073" max="3073" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3076" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3079" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3079" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3082" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3086" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3082" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3086" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3087" max="3087" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3088" max="3328" width="9.140625" style="3"/>
-    <col min="3329" max="3329" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3332" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3328" width="9.1796875" style="3"/>
+    <col min="3329" max="3329" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3332" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3335" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3335" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3338" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3342" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3338" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3342" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3343" max="3343" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3344" max="3584" width="9.140625" style="3"/>
-    <col min="3585" max="3585" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3588" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3584" width="9.1796875" style="3"/>
+    <col min="3585" max="3585" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3588" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3591" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3591" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3594" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3598" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3594" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3598" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3599" max="3599" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3600" max="3840" width="9.140625" style="3"/>
-    <col min="3841" max="3841" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3844" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3840" width="9.1796875" style="3"/>
+    <col min="3841" max="3841" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3844" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3847" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3847" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3850" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3854" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3850" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3854" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3855" max="3855" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3856" max="4096" width="9.140625" style="3"/>
-    <col min="4097" max="4097" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4100" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3856" max="4096" width="9.1796875" style="3"/>
+    <col min="4097" max="4097" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4100" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4103" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4103" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4106" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4110" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4106" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4110" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4111" max="4111" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4112" max="4352" width="9.140625" style="3"/>
-    <col min="4353" max="4353" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4356" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4352" width="9.1796875" style="3"/>
+    <col min="4353" max="4353" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4356" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4359" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4359" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4362" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4366" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4362" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4366" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4367" max="4367" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4368" max="4608" width="9.140625" style="3"/>
-    <col min="4609" max="4609" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4612" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4608" width="9.1796875" style="3"/>
+    <col min="4609" max="4609" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4612" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4615" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4615" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4618" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4622" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4618" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4622" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4623" max="4623" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4624" max="4864" width="9.140625" style="3"/>
-    <col min="4865" max="4865" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4868" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4864" width="9.1796875" style="3"/>
+    <col min="4865" max="4865" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4868" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4871" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4871" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4874" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4878" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4874" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4878" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4879" max="4879" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4880" max="5120" width="9.140625" style="3"/>
-    <col min="5121" max="5121" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5124" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4880" max="5120" width="9.1796875" style="3"/>
+    <col min="5121" max="5121" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5124" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5127" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5127" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5130" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5134" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5130" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5134" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5135" max="5135" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5136" max="5376" width="9.140625" style="3"/>
-    <col min="5377" max="5377" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5380" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5376" width="9.1796875" style="3"/>
+    <col min="5377" max="5377" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5380" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5383" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5383" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5386" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5390" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5386" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5390" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5391" max="5391" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5392" max="5632" width="9.140625" style="3"/>
-    <col min="5633" max="5633" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5636" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5632" width="9.1796875" style="3"/>
+    <col min="5633" max="5633" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5636" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5639" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5639" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5642" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5646" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5642" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5646" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5647" max="5647" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5648" max="5888" width="9.140625" style="3"/>
-    <col min="5889" max="5889" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5892" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5888" width="9.1796875" style="3"/>
+    <col min="5889" max="5889" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5892" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5895" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5895" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5898" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5902" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5898" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5902" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5903" max="5903" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5904" max="6144" width="9.140625" style="3"/>
-    <col min="6145" max="6145" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6148" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5904" max="6144" width="9.1796875" style="3"/>
+    <col min="6145" max="6145" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6148" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6151" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6151" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6154" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6158" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6154" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6158" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6159" max="6159" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6160" max="6400" width="9.140625" style="3"/>
-    <col min="6401" max="6401" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6404" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6400" width="9.1796875" style="3"/>
+    <col min="6401" max="6401" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6404" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6407" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6407" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6410" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6414" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6410" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6414" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6415" max="6415" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6416" max="6656" width="9.140625" style="3"/>
-    <col min="6657" max="6657" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6660" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6656" width="9.1796875" style="3"/>
+    <col min="6657" max="6657" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6660" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6663" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6663" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6666" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6670" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6666" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6670" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6671" max="6671" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6672" max="6912" width="9.140625" style="3"/>
-    <col min="6913" max="6913" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6916" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6912" width="9.1796875" style="3"/>
+    <col min="6913" max="6913" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6916" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6919" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6919" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6922" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6926" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6922" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6926" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6927" max="6927" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6928" max="7168" width="9.140625" style="3"/>
-    <col min="7169" max="7169" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7172" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6928" max="7168" width="9.1796875" style="3"/>
+    <col min="7169" max="7169" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7172" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7175" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7175" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7178" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7182" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7178" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7182" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7183" max="7183" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7184" max="7424" width="9.140625" style="3"/>
-    <col min="7425" max="7425" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7428" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7424" width="9.1796875" style="3"/>
+    <col min="7425" max="7425" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7428" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7431" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7431" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7434" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7438" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7434" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7438" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7439" max="7439" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7440" max="7680" width="9.140625" style="3"/>
-    <col min="7681" max="7681" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7684" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7680" width="9.1796875" style="3"/>
+    <col min="7681" max="7681" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7684" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7687" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7687" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7690" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7694" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7690" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7694" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7695" max="7695" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7696" max="7936" width="9.140625" style="3"/>
-    <col min="7937" max="7937" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7940" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7936" width="9.1796875" style="3"/>
+    <col min="7937" max="7937" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7940" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7943" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7943" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7946" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7950" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7946" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7950" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="7951" max="7951" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7952" max="8192" width="9.140625" style="3"/>
-    <col min="8193" max="8193" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8196" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7952" max="8192" width="9.1796875" style="3"/>
+    <col min="8193" max="8193" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8196" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8199" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8199" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8202" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8206" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8202" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8206" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8207" max="8207" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8208" max="8448" width="9.140625" style="3"/>
-    <col min="8449" max="8449" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8452" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8448" width="9.1796875" style="3"/>
+    <col min="8449" max="8449" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8452" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8455" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8455" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8458" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8462" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8458" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8462" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8463" max="8463" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8464" max="8704" width="9.140625" style="3"/>
-    <col min="8705" max="8705" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8708" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8704" width="9.1796875" style="3"/>
+    <col min="8705" max="8705" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8708" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8711" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8711" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8714" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8718" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8714" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8718" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8719" max="8719" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8720" max="8960" width="9.140625" style="3"/>
-    <col min="8961" max="8961" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8964" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8960" width="9.1796875" style="3"/>
+    <col min="8961" max="8961" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8964" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8967" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8967" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8970" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8974" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8970" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8974" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8975" max="8975" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8976" max="9216" width="9.140625" style="3"/>
-    <col min="9217" max="9217" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9220" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8976" max="9216" width="9.1796875" style="3"/>
+    <col min="9217" max="9217" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9220" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9223" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9223" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9226" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9230" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9226" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9230" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9231" max="9231" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="9232" max="9472" width="9.140625" style="3"/>
-    <col min="9473" max="9473" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9476" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9472" width="9.1796875" style="3"/>
+    <col min="9473" max="9473" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9476" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9479" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9479" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9482" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9486" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9482" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9486" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9487" max="9487" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="9488" max="9728" width="9.140625" style="3"/>
-    <col min="9729" max="9729" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9732" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9728" width="9.1796875" style="3"/>
+    <col min="9729" max="9729" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9732" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9735" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9735" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9738" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9742" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9738" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9742" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9743" max="9743" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="9744" max="9984" width="9.140625" style="3"/>
-    <col min="9985" max="9985" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9988" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9984" width="9.1796875" style="3"/>
+    <col min="9985" max="9985" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9988" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9991" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9991" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9994" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9998" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9994" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9998" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9999" max="9999" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10000" max="10240" width="9.140625" style="3"/>
-    <col min="10241" max="10241" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10244" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10240" width="9.1796875" style="3"/>
+    <col min="10241" max="10241" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10244" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10247" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10247" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10250" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10254" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10250" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10254" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10255" max="10255" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10256" max="10496" width="9.140625" style="3"/>
-    <col min="10497" max="10497" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10500" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10496" width="9.1796875" style="3"/>
+    <col min="10497" max="10497" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10500" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10503" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10503" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10506" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10510" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10506" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10510" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10511" max="10511" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10512" max="10752" width="9.140625" style="3"/>
-    <col min="10753" max="10753" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10756" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10752" width="9.1796875" style="3"/>
+    <col min="10753" max="10753" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10756" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10759" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10759" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10762" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10766" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10762" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10766" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="10767" max="10767" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10768" max="11008" width="9.140625" style="3"/>
-    <col min="11009" max="11009" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11012" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10768" max="11008" width="9.1796875" style="3"/>
+    <col min="11009" max="11009" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11012" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11015" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11015" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11018" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11022" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11018" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11022" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11023" max="11023" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11024" max="11264" width="9.140625" style="3"/>
-    <col min="11265" max="11265" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11268" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11264" width="9.1796875" style="3"/>
+    <col min="11265" max="11265" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11268" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11271" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11271" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11274" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11278" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11274" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11278" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11279" max="11279" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11280" max="11520" width="9.140625" style="3"/>
-    <col min="11521" max="11521" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11524" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11520" width="9.1796875" style="3"/>
+    <col min="11521" max="11521" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11524" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11527" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11527" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11530" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11534" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11530" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11534" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11535" max="11535" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11536" max="11776" width="9.140625" style="3"/>
-    <col min="11777" max="11777" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11780" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11776" width="9.1796875" style="3"/>
+    <col min="11777" max="11777" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11780" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11783" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11783" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11786" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11790" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11786" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11790" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11791" max="11791" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11792" max="12032" width="9.140625" style="3"/>
-    <col min="12033" max="12033" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12036" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11792" max="12032" width="9.1796875" style="3"/>
+    <col min="12033" max="12033" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12036" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12039" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12039" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12042" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12046" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12042" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12046" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12047" max="12047" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12048" max="12288" width="9.140625" style="3"/>
-    <col min="12289" max="12289" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12292" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12288" width="9.1796875" style="3"/>
+    <col min="12289" max="12289" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12292" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12295" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12295" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12298" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12302" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12298" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12302" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12303" max="12303" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12304" max="12544" width="9.140625" style="3"/>
-    <col min="12545" max="12545" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12548" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12544" width="9.1796875" style="3"/>
+    <col min="12545" max="12545" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12548" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12551" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12551" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12554" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12558" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12554" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12558" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12559" max="12559" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12560" max="12800" width="9.140625" style="3"/>
-    <col min="12801" max="12801" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12804" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12800" width="9.1796875" style="3"/>
+    <col min="12801" max="12801" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12804" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12807" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12807" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12810" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12814" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12810" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12814" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12815" max="12815" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12816" max="13056" width="9.140625" style="3"/>
-    <col min="13057" max="13057" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13060" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12816" max="13056" width="9.1796875" style="3"/>
+    <col min="13057" max="13057" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13060" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13063" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13063" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13066" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13070" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13066" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13070" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13071" max="13071" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13072" max="13312" width="9.140625" style="3"/>
-    <col min="13313" max="13313" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13316" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13312" width="9.1796875" style="3"/>
+    <col min="13313" max="13313" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13316" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13319" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13319" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13322" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13326" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13322" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13326" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13327" max="13327" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13328" max="13568" width="9.140625" style="3"/>
-    <col min="13569" max="13569" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13572" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13568" width="9.1796875" style="3"/>
+    <col min="13569" max="13569" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13572" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13575" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13575" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13578" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13582" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13578" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13582" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13583" max="13583" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13584" max="13824" width="9.140625" style="3"/>
-    <col min="13825" max="13825" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13828" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13824" width="9.1796875" style="3"/>
+    <col min="13825" max="13825" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13828" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13831" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13831" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13834" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13838" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13834" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13838" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13839" max="13839" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13840" max="14080" width="9.140625" style="3"/>
-    <col min="14081" max="14081" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14084" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13840" max="14080" width="9.1796875" style="3"/>
+    <col min="14081" max="14081" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14084" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14087" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14087" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14090" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14094" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14090" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14094" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14095" max="14095" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="14096" max="14336" width="9.140625" style="3"/>
-    <col min="14337" max="14337" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14340" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14336" width="9.1796875" style="3"/>
+    <col min="14337" max="14337" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14340" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14343" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14343" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14346" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14350" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14346" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14350" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14351" max="14351" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="14352" max="14592" width="9.140625" style="3"/>
-    <col min="14593" max="14593" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14596" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14592" width="9.1796875" style="3"/>
+    <col min="14593" max="14593" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14596" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14599" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14599" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14602" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14606" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14602" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14606" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14607" max="14607" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="14608" max="14848" width="9.140625" style="3"/>
-    <col min="14849" max="14849" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14852" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14848" width="9.1796875" style="3"/>
+    <col min="14849" max="14849" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14852" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14855" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14855" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14858" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14862" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14858" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14862" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="14863" max="14863" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="14864" max="15104" width="9.140625" style="3"/>
-    <col min="15105" max="15105" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15108" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14864" max="15104" width="9.1796875" style="3"/>
+    <col min="15105" max="15105" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15108" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15111" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15111" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15114" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15118" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15114" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15118" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15119" max="15119" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="15120" max="15360" width="9.140625" style="3"/>
-    <col min="15361" max="15361" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15364" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15360" width="9.1796875" style="3"/>
+    <col min="15361" max="15361" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15364" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15367" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15367" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15370" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15374" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15370" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15374" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15375" max="15375" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="15376" max="15616" width="9.140625" style="3"/>
-    <col min="15617" max="15617" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15620" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15616" width="9.1796875" style="3"/>
+    <col min="15617" max="15617" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15620" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15623" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15623" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15626" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15630" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15626" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15630" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15631" max="15631" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="15632" max="15872" width="9.140625" style="3"/>
-    <col min="15873" max="15873" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15876" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15872" width="9.1796875" style="3"/>
+    <col min="15873" max="15873" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15876" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15879" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15879" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15882" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15886" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15882" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15886" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="15887" max="15887" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="15888" max="16128" width="9.140625" style="3"/>
-    <col min="16129" max="16129" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16132" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15888" max="16128" width="9.1796875" style="3"/>
+    <col min="16129" max="16129" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16132" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16135" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16135" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16138" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16142" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16138" width="5.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16142" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="16143" max="16143" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16144" max="16384" width="9.140625" style="3"/>
+    <col min="16144" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -2623,7 +2623,7 @@
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2640,7 +2640,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2657,7 +2657,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2674,7 +2674,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2691,7 +2691,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2708,7 +2708,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2725,7 +2725,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2742,7 +2742,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -2759,7 +2759,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -2776,7 +2776,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -2793,7 +2793,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -2810,7 +2810,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -2827,7 +2827,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2844,7 +2844,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -2861,7 +2861,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2878,7 +2878,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2895,7 +2895,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2912,7 +2912,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2929,7 +2929,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2946,7 +2946,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2963,7 +2963,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2980,7 +2980,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2997,7 +2997,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -3014,7 +3014,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3031,7 +3031,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3048,7 +3048,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3065,7 +3065,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3082,7 +3082,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3099,7 +3099,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3116,7 +3116,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3133,7 +3133,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3150,7 +3150,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3167,7 +3167,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3184,7 +3184,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3201,7 +3201,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3218,7 +3218,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -3235,7 +3235,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3252,7 +3252,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -3269,7 +3269,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -3286,7 +3286,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -3303,7 +3303,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -3320,7 +3320,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -3337,7 +3337,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -3354,7 +3354,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3371,7 +3371,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -3388,7 +3388,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -3405,7 +3405,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -3422,7 +3422,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -3439,7 +3439,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -3456,7 +3456,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -3473,7 +3473,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -3490,7 +3490,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -3507,7 +3507,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -3524,7 +3524,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -3541,7 +3541,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -3558,7 +3558,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -3575,7 +3575,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -3592,7 +3592,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3609,7 +3609,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -3626,7 +3626,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -3643,7 +3643,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -3660,7 +3660,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -3677,7 +3677,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -3694,7 +3694,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -3711,157 +3711,157 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="25"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="25"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
     </row>
-    <row r="113" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
-      <c r="L113" s="68"/>
-      <c r="M113" s="68"/>
-      <c r="N113" s="68"/>
-      <c r="O113" s="68"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="80"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="80"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -3878,7 +3878,7 @@
       <c r="N114" s="27"/>
       <c r="O114" s="27"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
@@ -3895,7 +3895,7 @@
       <c r="N115" s="25"/>
       <c r="O115" s="25"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
@@ -3912,7 +3912,7 @@
       <c r="N116" s="25"/>
       <c r="O116" s="25"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
@@ -3929,7 +3929,7 @@
       <c r="N117" s="25"/>
       <c r="O117" s="25"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -3946,7 +3946,7 @@
       <c r="N118" s="25"/>
       <c r="O118" s="25"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -3963,7 +3963,7 @@
       <c r="N119" s="25"/>
       <c r="O119" s="25"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
@@ -3980,7 +3980,7 @@
       <c r="N120" s="25"/>
       <c r="O120" s="25"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
@@ -3997,7 +3997,7 @@
       <c r="N121" s="25"/>
       <c r="O121" s="25"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
@@ -4014,157 +4014,157 @@
       <c r="N122" s="25"/>
       <c r="O122" s="25"/>
     </row>
-    <row r="123" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
       <c r="E124" s="27"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="25"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="25"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="25"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
     </row>
-    <row r="146" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="68"/>
-      <c r="B146" s="68"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="68"/>
-      <c r="I146" s="68"/>
-      <c r="J146" s="68"/>
-      <c r="K146" s="68"/>
-      <c r="L146" s="68"/>
-      <c r="M146" s="68"/>
-      <c r="N146" s="68"/>
-      <c r="O146" s="68"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="80"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
+      <c r="K146" s="80"/>
+      <c r="L146" s="80"/>
+      <c r="M146" s="80"/>
+      <c r="N146" s="80"/>
+      <c r="O146" s="80"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
       <c r="C147" s="27"/>
@@ -4181,7 +4181,7 @@
       <c r="N147" s="27"/>
       <c r="O147" s="27"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
@@ -4198,7 +4198,7 @@
       <c r="N148" s="25"/>
       <c r="O148" s="25"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
@@ -4215,7 +4215,7 @@
       <c r="N149" s="25"/>
       <c r="O149" s="25"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
@@ -4232,7 +4232,7 @@
       <c r="N150" s="25"/>
       <c r="O150" s="25"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
@@ -4249,7 +4249,7 @@
       <c r="N151" s="25"/>
       <c r="O151" s="25"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
@@ -4266,7 +4266,7 @@
       <c r="N152" s="25"/>
       <c r="O152" s="25"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -4283,7 +4283,7 @@
       <c r="N153" s="25"/>
       <c r="O153" s="25"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
@@ -4300,7 +4300,7 @@
       <c r="N154" s="25"/>
       <c r="O154" s="25"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
@@ -4317,7 +4317,7 @@
       <c r="N155" s="25"/>
       <c r="O155" s="25"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
@@ -4334,157 +4334,157 @@
       <c r="N156" s="25"/>
       <c r="O156" s="25"/>
     </row>
-    <row r="157" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
-      <c r="B157" s="68"/>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="80"/>
+      <c r="B157" s="80"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="25"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
       <c r="E168" s="25"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="25"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
       <c r="D172" s="25"/>
       <c r="E172" s="25"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="25"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
       <c r="E176" s="25"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
       <c r="E177" s="25"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
     </row>
-    <row r="180" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="68"/>
-      <c r="B180" s="68"/>
-      <c r="C180" s="68"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="68"/>
-      <c r="F180" s="68"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="68"/>
-      <c r="I180" s="68"/>
-      <c r="J180" s="68"/>
-      <c r="K180" s="68"/>
-      <c r="L180" s="68"/>
-      <c r="M180" s="68"/>
-      <c r="N180" s="68"/>
-      <c r="O180" s="68"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="80"/>
+      <c r="B180" s="80"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+      <c r="E180" s="80"/>
+      <c r="F180" s="80"/>
+      <c r="G180" s="80"/>
+      <c r="H180" s="80"/>
+      <c r="I180" s="80"/>
+      <c r="J180" s="80"/>
+      <c r="K180" s="80"/>
+      <c r="L180" s="80"/>
+      <c r="M180" s="80"/>
+      <c r="N180" s="80"/>
+      <c r="O180" s="80"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
       <c r="C181" s="27"/>
@@ -4501,7 +4501,7 @@
       <c r="N181" s="27"/>
       <c r="O181" s="27"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
@@ -4518,7 +4518,7 @@
       <c r="N182" s="25"/>
       <c r="O182" s="25"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
@@ -4535,7 +4535,7 @@
       <c r="N183" s="25"/>
       <c r="O183" s="25"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
@@ -4552,7 +4552,7 @@
       <c r="N184" s="25"/>
       <c r="O184" s="25"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
@@ -4569,7 +4569,7 @@
       <c r="N185" s="25"/>
       <c r="O185" s="25"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
@@ -4586,7 +4586,7 @@
       <c r="N186" s="25"/>
       <c r="O186" s="25"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -4603,7 +4603,7 @@
       <c r="N187" s="25"/>
       <c r="O187" s="25"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -4620,157 +4620,157 @@
       <c r="N188" s="25"/>
       <c r="O188" s="25"/>
     </row>
-    <row r="189" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="68"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="68"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="68"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="80"/>
+      <c r="B189" s="80"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="80"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
       <c r="B190" s="27"/>
       <c r="C190" s="27"/>
       <c r="D190" s="27"/>
       <c r="E190" s="27"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
       <c r="E194" s="25"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
       <c r="E195" s="25"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="25"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="25"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="25"/>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
       <c r="D202" s="25"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="25"/>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="25"/>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
       <c r="D204" s="25"/>
       <c r="E204" s="25"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="25"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B206" s="25"/>
       <c r="C206" s="25"/>
       <c r="D206" s="25"/>
       <c r="E206" s="25"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B207" s="25"/>
       <c r="C207" s="25"/>
       <c r="D207" s="25"/>
       <c r="E207" s="25"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B208" s="25"/>
       <c r="C208" s="25"/>
       <c r="D208" s="25"/>
       <c r="E208" s="25"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B209" s="25"/>
       <c r="C209" s="25"/>
       <c r="D209" s="25"/>
       <c r="E209" s="25"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25"/>
       <c r="D210" s="25"/>
       <c r="E210" s="25"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
     </row>
-    <row r="212" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="68"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="68"/>
-      <c r="I212" s="68"/>
-      <c r="J212" s="68"/>
-      <c r="K212" s="68"/>
-      <c r="L212" s="68"/>
-      <c r="M212" s="68"/>
-      <c r="N212" s="68"/>
-      <c r="O212" s="68"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="80"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="80"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
+      <c r="G212" s="80"/>
+      <c r="H212" s="80"/>
+      <c r="I212" s="80"/>
+      <c r="J212" s="80"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="80"/>
+      <c r="M212" s="80"/>
+      <c r="N212" s="80"/>
+      <c r="O212" s="80"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="27"/>
       <c r="B213" s="27"/>
       <c r="C213" s="27"/>
@@ -4787,7 +4787,7 @@
       <c r="N213" s="27"/>
       <c r="O213" s="27"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="25"/>
       <c r="B214" s="25"/>
       <c r="C214" s="25"/>
@@ -4804,7 +4804,7 @@
       <c r="N214" s="25"/>
       <c r="O214" s="25"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="25"/>
       <c r="B215" s="25"/>
       <c r="C215" s="25"/>
@@ -4821,7 +4821,7 @@
       <c r="N215" s="25"/>
       <c r="O215" s="25"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="25"/>
       <c r="B216" s="25"/>
       <c r="C216" s="25"/>
@@ -4838,7 +4838,7 @@
       <c r="N216" s="25"/>
       <c r="O216" s="25"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="25"/>
       <c r="B217" s="25"/>
       <c r="C217" s="25"/>
@@ -4855,7 +4855,7 @@
       <c r="N217" s="25"/>
       <c r="O217" s="25"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="25"/>
       <c r="B218" s="25"/>
       <c r="C218" s="25"/>
@@ -4872,7 +4872,7 @@
       <c r="N218" s="25"/>
       <c r="O218" s="25"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="25"/>
       <c r="B219" s="25"/>
       <c r="C219" s="25"/>
@@ -4889,7 +4889,7 @@
       <c r="N219" s="25"/>
       <c r="O219" s="25"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="25"/>
       <c r="B220" s="25"/>
       <c r="C220" s="25"/>
@@ -4906,7 +4906,7 @@
       <c r="N220" s="25"/>
       <c r="O220" s="25"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="25"/>
       <c r="B221" s="25"/>
       <c r="C221" s="25"/>
@@ -4923,157 +4923,157 @@
       <c r="N221" s="25"/>
       <c r="O221" s="25"/>
     </row>
-    <row r="222" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="68"/>
-      <c r="B222" s="68"/>
-      <c r="C222" s="68"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="68"/>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="80"/>
+      <c r="B222" s="80"/>
+      <c r="C222" s="80"/>
+      <c r="D222" s="80"/>
+      <c r="E222" s="80"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="27"/>
       <c r="B223" s="27"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
       <c r="E223" s="27"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="25"/>
       <c r="B224" s="25"/>
       <c r="C224" s="25"/>
       <c r="D224" s="25"/>
       <c r="E224" s="25"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="25"/>
       <c r="B225" s="25"/>
       <c r="C225" s="25"/>
       <c r="D225" s="25"/>
       <c r="E225" s="25"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="25"/>
       <c r="B226" s="25"/>
       <c r="C226" s="25"/>
       <c r="D226" s="25"/>
       <c r="E226" s="25"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="25"/>
       <c r="B227" s="25"/>
       <c r="C227" s="25"/>
       <c r="D227" s="25"/>
       <c r="E227" s="25"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="25"/>
       <c r="B228" s="25"/>
       <c r="C228" s="25"/>
       <c r="D228" s="25"/>
       <c r="E228" s="25"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="25"/>
       <c r="B229" s="25"/>
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
       <c r="E229" s="25"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="25"/>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
       <c r="D230" s="25"/>
       <c r="E230" s="25"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="25"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="25"/>
       <c r="B233" s="25"/>
       <c r="C233" s="25"/>
       <c r="D233" s="25"/>
       <c r="E233" s="25"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="25"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="25"/>
       <c r="B235" s="25"/>
       <c r="C235" s="25"/>
       <c r="D235" s="25"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="25"/>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
       <c r="D236" s="25"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="25"/>
       <c r="B237" s="25"/>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
       <c r="E237" s="25"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="25"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
       <c r="E239" s="25"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B240" s="25"/>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
       <c r="E240" s="25"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B241" s="25"/>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B242" s="25"/>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="25"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="25"/>
       <c r="B244" s="25"/>
     </row>
-    <row r="245" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="68"/>
-      <c r="B245" s="68"/>
-      <c r="C245" s="68"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="68"/>
-      <c r="F245" s="68"/>
-      <c r="G245" s="68"/>
-      <c r="H245" s="68"/>
-      <c r="I245" s="68"/>
-      <c r="J245" s="68"/>
-      <c r="K245" s="68"/>
-      <c r="L245" s="68"/>
-      <c r="M245" s="68"/>
-      <c r="N245" s="68"/>
-      <c r="O245" s="68"/>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="80"/>
+      <c r="B245" s="80"/>
+      <c r="C245" s="80"/>
+      <c r="D245" s="80"/>
+      <c r="E245" s="80"/>
+      <c r="F245" s="80"/>
+      <c r="G245" s="80"/>
+      <c r="H245" s="80"/>
+      <c r="I245" s="80"/>
+      <c r="J245" s="80"/>
+      <c r="K245" s="80"/>
+      <c r="L245" s="80"/>
+      <c r="M245" s="80"/>
+      <c r="N245" s="80"/>
+      <c r="O245" s="80"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="27"/>
       <c r="B246" s="27"/>
       <c r="C246" s="27"/>
@@ -5090,7 +5090,7 @@
       <c r="N246" s="27"/>
       <c r="O246" s="27"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="25"/>
       <c r="B247" s="25"/>
       <c r="C247" s="25"/>
@@ -5107,7 +5107,7 @@
       <c r="N247" s="25"/>
       <c r="O247" s="25"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="25"/>
       <c r="B248" s="25"/>
       <c r="C248" s="25"/>
@@ -5124,7 +5124,7 @@
       <c r="N248" s="25"/>
       <c r="O248" s="25"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="25"/>
       <c r="B249" s="25"/>
       <c r="C249" s="25"/>
@@ -5141,7 +5141,7 @@
       <c r="N249" s="25"/>
       <c r="O249" s="25"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="25"/>
       <c r="B250" s="25"/>
       <c r="C250" s="25"/>
@@ -5158,7 +5158,7 @@
       <c r="N250" s="25"/>
       <c r="O250" s="25"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="25"/>
       <c r="B251" s="25"/>
       <c r="C251" s="25"/>
@@ -5175,7 +5175,7 @@
       <c r="N251" s="25"/>
       <c r="O251" s="25"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="25"/>
       <c r="B252" s="25"/>
       <c r="C252" s="25"/>
@@ -5192,7 +5192,7 @@
       <c r="N252" s="25"/>
       <c r="O252" s="25"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="25"/>
       <c r="B253" s="25"/>
       <c r="C253" s="25"/>
@@ -5209,7 +5209,7 @@
       <c r="N253" s="25"/>
       <c r="O253" s="25"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="25"/>
       <c r="B254" s="25"/>
       <c r="C254" s="25"/>
@@ -5226,157 +5226,157 @@
       <c r="N254" s="25"/>
       <c r="O254" s="25"/>
     </row>
-    <row r="255" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="68"/>
-      <c r="B255" s="68"/>
-      <c r="C255" s="68"/>
-      <c r="D255" s="68"/>
-      <c r="E255" s="68"/>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="80"/>
+      <c r="B255" s="80"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="80"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
       <c r="B256" s="27"/>
       <c r="C256" s="27"/>
       <c r="D256" s="27"/>
       <c r="E256" s="27"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="25"/>
       <c r="B257" s="25"/>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
       <c r="E257" s="25"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="25"/>
       <c r="B258" s="25"/>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
       <c r="E258" s="25"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="25"/>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
       <c r="E259" s="25"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="25"/>
       <c r="B260" s="25"/>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
       <c r="E260" s="25"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="25"/>
       <c r="B261" s="25"/>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
       <c r="E261" s="25"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="25"/>
       <c r="B262" s="25"/>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="25"/>
       <c r="B263" s="25"/>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
       <c r="E263" s="25"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="25"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="25"/>
       <c r="B266" s="25"/>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
       <c r="E266" s="25"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="25"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="25"/>
       <c r="B268" s="25"/>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="25"/>
       <c r="B269" s="25"/>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="25"/>
       <c r="B270" s="25"/>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
       <c r="E270" s="25"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="25"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B272" s="25"/>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
       <c r="E272" s="25"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B273" s="25"/>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
       <c r="E273" s="25"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B274" s="25"/>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
       <c r="E274" s="25"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B275" s="25"/>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
       <c r="E275" s="25"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="25"/>
       <c r="B276" s="25"/>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
       <c r="E276" s="25"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="25"/>
       <c r="B277" s="25"/>
     </row>
-    <row r="278" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="68"/>
-      <c r="B278" s="68"/>
-      <c r="C278" s="68"/>
-      <c r="D278" s="68"/>
-      <c r="E278" s="68"/>
-      <c r="F278" s="68"/>
-      <c r="G278" s="68"/>
-      <c r="H278" s="68"/>
-      <c r="I278" s="68"/>
-      <c r="J278" s="68"/>
-      <c r="K278" s="68"/>
-      <c r="L278" s="68"/>
-      <c r="M278" s="68"/>
-      <c r="N278" s="68"/>
-      <c r="O278" s="68"/>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="80"/>
+      <c r="B278" s="80"/>
+      <c r="C278" s="80"/>
+      <c r="D278" s="80"/>
+      <c r="E278" s="80"/>
+      <c r="F278" s="80"/>
+      <c r="G278" s="80"/>
+      <c r="H278" s="80"/>
+      <c r="I278" s="80"/>
+      <c r="J278" s="80"/>
+      <c r="K278" s="80"/>
+      <c r="L278" s="80"/>
+      <c r="M278" s="80"/>
+      <c r="N278" s="80"/>
+      <c r="O278" s="80"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="27"/>
       <c r="B279" s="27"/>
       <c r="C279" s="27"/>
@@ -5393,7 +5393,7 @@
       <c r="N279" s="27"/>
       <c r="O279" s="27"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="25"/>
       <c r="B280" s="25"/>
       <c r="C280" s="25"/>
@@ -5410,7 +5410,7 @@
       <c r="N280" s="25"/>
       <c r="O280" s="25"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="25"/>
       <c r="B281" s="25"/>
       <c r="C281" s="25"/>
@@ -5427,7 +5427,7 @@
       <c r="N281" s="25"/>
       <c r="O281" s="25"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="25"/>
       <c r="B282" s="25"/>
       <c r="C282" s="25"/>
@@ -5444,7 +5444,7 @@
       <c r="N282" s="25"/>
       <c r="O282" s="25"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="25"/>
       <c r="B283" s="25"/>
       <c r="C283" s="25"/>
@@ -5461,7 +5461,7 @@
       <c r="N283" s="25"/>
       <c r="O283" s="25"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="25"/>
       <c r="B284" s="25"/>
       <c r="C284" s="25"/>
@@ -5478,7 +5478,7 @@
       <c r="N284" s="25"/>
       <c r="O284" s="25"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="25"/>
       <c r="B285" s="25"/>
       <c r="C285" s="25"/>
@@ -5495,7 +5495,7 @@
       <c r="N285" s="25"/>
       <c r="O285" s="25"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="25"/>
       <c r="B286" s="25"/>
       <c r="C286" s="25"/>
@@ -5512,7 +5512,7 @@
       <c r="N286" s="25"/>
       <c r="O286" s="25"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="25"/>
       <c r="B287" s="25"/>
       <c r="C287" s="25"/>
@@ -5529,157 +5529,157 @@
       <c r="N287" s="25"/>
       <c r="O287" s="25"/>
     </row>
-    <row r="288" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="68"/>
-      <c r="B288" s="68"/>
-      <c r="C288" s="68"/>
-      <c r="D288" s="68"/>
-      <c r="E288" s="68"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="80"/>
+      <c r="B288" s="80"/>
+      <c r="C288" s="80"/>
+      <c r="D288" s="80"/>
+      <c r="E288" s="80"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="27"/>
       <c r="B289" s="27"/>
       <c r="C289" s="27"/>
       <c r="D289" s="27"/>
       <c r="E289" s="27"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="25"/>
       <c r="B290" s="25"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="25"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="25"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
       <c r="E291" s="25"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="25"/>
       <c r="B292" s="25"/>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
       <c r="E292" s="25"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="25"/>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
       <c r="E293" s="25"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="25"/>
       <c r="B294" s="25"/>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
       <c r="E294" s="25"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="25"/>
       <c r="B295" s="25"/>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
       <c r="E295" s="25"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="25"/>
       <c r="B296" s="25"/>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
       <c r="E296" s="25"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="25"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="25"/>
       <c r="B299" s="25"/>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
       <c r="E299" s="25"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="25"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="25"/>
       <c r="B301" s="25"/>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="25"/>
       <c r="B302" s="25"/>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="25"/>
       <c r="B303" s="25"/>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
       <c r="E303" s="25"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="25"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B305" s="25"/>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
       <c r="E305" s="25"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B306" s="25"/>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
       <c r="E306" s="25"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B307" s="25"/>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
       <c r="E307" s="25"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B308" s="25"/>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
       <c r="E308" s="25"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="25"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
       <c r="E309" s="25"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" s="25"/>
       <c r="B310" s="25"/>
     </row>
-    <row r="311" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="68"/>
-      <c r="B311" s="68"/>
-      <c r="C311" s="68"/>
-      <c r="D311" s="68"/>
-      <c r="E311" s="68"/>
-      <c r="F311" s="68"/>
-      <c r="G311" s="68"/>
-      <c r="H311" s="68"/>
-      <c r="I311" s="68"/>
-      <c r="J311" s="68"/>
-      <c r="K311" s="68"/>
-      <c r="L311" s="68"/>
-      <c r="M311" s="68"/>
-      <c r="N311" s="68"/>
-      <c r="O311" s="68"/>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="80"/>
+      <c r="B311" s="80"/>
+      <c r="C311" s="80"/>
+      <c r="D311" s="80"/>
+      <c r="E311" s="80"/>
+      <c r="F311" s="80"/>
+      <c r="G311" s="80"/>
+      <c r="H311" s="80"/>
+      <c r="I311" s="80"/>
+      <c r="J311" s="80"/>
+      <c r="K311" s="80"/>
+      <c r="L311" s="80"/>
+      <c r="M311" s="80"/>
+      <c r="N311" s="80"/>
+      <c r="O311" s="80"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="27"/>
       <c r="B312" s="27"/>
       <c r="C312" s="27"/>
@@ -5696,7 +5696,7 @@
       <c r="N312" s="27"/>
       <c r="O312" s="27"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" s="25"/>
       <c r="B313" s="25"/>
       <c r="C313" s="25"/>
@@ -5713,7 +5713,7 @@
       <c r="N313" s="25"/>
       <c r="O313" s="25"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" s="25"/>
       <c r="B314" s="25"/>
       <c r="C314" s="25"/>
@@ -5730,7 +5730,7 @@
       <c r="N314" s="25"/>
       <c r="O314" s="25"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" s="25"/>
       <c r="B315" s="25"/>
       <c r="C315" s="25"/>
@@ -5747,7 +5747,7 @@
       <c r="N315" s="25"/>
       <c r="O315" s="25"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" s="25"/>
       <c r="B316" s="25"/>
       <c r="C316" s="25"/>
@@ -5764,7 +5764,7 @@
       <c r="N316" s="25"/>
       <c r="O316" s="25"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="25"/>
       <c r="B317" s="25"/>
       <c r="C317" s="25"/>
@@ -5781,7 +5781,7 @@
       <c r="N317" s="25"/>
       <c r="O317" s="25"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="25"/>
       <c r="B318" s="25"/>
       <c r="C318" s="25"/>
@@ -5798,7 +5798,7 @@
       <c r="N318" s="25"/>
       <c r="O318" s="25"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="25"/>
       <c r="B319" s="25"/>
       <c r="C319" s="25"/>
@@ -5815,7 +5815,7 @@
       <c r="N319" s="25"/>
       <c r="O319" s="25"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="25"/>
       <c r="B320" s="25"/>
       <c r="C320" s="25"/>
@@ -5832,157 +5832,157 @@
       <c r="N320" s="25"/>
       <c r="O320" s="25"/>
     </row>
-    <row r="321" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="68"/>
-      <c r="B321" s="68"/>
-      <c r="C321" s="68"/>
-      <c r="D321" s="68"/>
-      <c r="E321" s="68"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="80"/>
+      <c r="B321" s="80"/>
+      <c r="C321" s="80"/>
+      <c r="D321" s="80"/>
+      <c r="E321" s="80"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="27"/>
       <c r="B322" s="27"/>
       <c r="C322" s="27"/>
       <c r="D322" s="27"/>
       <c r="E322" s="27"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="25"/>
       <c r="B323" s="25"/>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
       <c r="E323" s="25"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="25"/>
       <c r="B324" s="25"/>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
       <c r="E324" s="25"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="25"/>
       <c r="B325" s="25"/>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
       <c r="E325" s="25"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="25"/>
       <c r="B326" s="25"/>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
       <c r="E326" s="25"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="25"/>
       <c r="B327" s="25"/>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
       <c r="E327" s="25"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="25"/>
       <c r="B328" s="25"/>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
       <c r="E328" s="25"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="25"/>
       <c r="B329" s="25"/>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
       <c r="E329" s="25"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="25"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="25"/>
       <c r="B332" s="25"/>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
       <c r="E332" s="25"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="25"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="25"/>
       <c r="B334" s="25"/>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="25"/>
       <c r="B335" s="25"/>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="25"/>
       <c r="B336" s="25"/>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
       <c r="E336" s="25"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="25"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B338" s="25"/>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
       <c r="E338" s="25"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B339" s="25"/>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
       <c r="E339" s="25"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B340" s="25"/>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
       <c r="E340" s="25"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B341" s="25"/>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
       <c r="E341" s="25"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="25"/>
       <c r="B342" s="25"/>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
       <c r="E342" s="25"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="25"/>
       <c r="B343" s="25"/>
     </row>
-    <row r="344" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="68"/>
-      <c r="B344" s="68"/>
-      <c r="C344" s="68"/>
-      <c r="D344" s="68"/>
-      <c r="E344" s="68"/>
-      <c r="F344" s="68"/>
-      <c r="G344" s="68"/>
-      <c r="H344" s="68"/>
-      <c r="I344" s="68"/>
-      <c r="J344" s="68"/>
-      <c r="K344" s="68"/>
-      <c r="L344" s="68"/>
-      <c r="M344" s="68"/>
-      <c r="N344" s="68"/>
-      <c r="O344" s="68"/>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="80"/>
+      <c r="B344" s="80"/>
+      <c r="C344" s="80"/>
+      <c r="D344" s="80"/>
+      <c r="E344" s="80"/>
+      <c r="F344" s="80"/>
+      <c r="G344" s="80"/>
+      <c r="H344" s="80"/>
+      <c r="I344" s="80"/>
+      <c r="J344" s="80"/>
+      <c r="K344" s="80"/>
+      <c r="L344" s="80"/>
+      <c r="M344" s="80"/>
+      <c r="N344" s="80"/>
+      <c r="O344" s="80"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="27"/>
       <c r="B345" s="27"/>
       <c r="C345" s="27"/>
@@ -5999,7 +5999,7 @@
       <c r="N345" s="27"/>
       <c r="O345" s="27"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="25"/>
       <c r="B346" s="25"/>
       <c r="C346" s="25"/>
@@ -6016,7 +6016,7 @@
       <c r="N346" s="25"/>
       <c r="O346" s="25"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="25"/>
       <c r="B347" s="25"/>
       <c r="C347" s="25"/>
@@ -6033,7 +6033,7 @@
       <c r="N347" s="25"/>
       <c r="O347" s="25"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="25"/>
       <c r="B348" s="25"/>
       <c r="C348" s="25"/>
@@ -6050,7 +6050,7 @@
       <c r="N348" s="25"/>
       <c r="O348" s="25"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="25"/>
       <c r="B349" s="25"/>
       <c r="C349" s="25"/>
@@ -6067,7 +6067,7 @@
       <c r="N349" s="25"/>
       <c r="O349" s="25"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="25"/>
       <c r="B350" s="25"/>
       <c r="C350" s="25"/>
@@ -6084,7 +6084,7 @@
       <c r="N350" s="25"/>
       <c r="O350" s="25"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="25"/>
       <c r="B351" s="25"/>
       <c r="C351" s="25"/>
@@ -6101,7 +6101,7 @@
       <c r="N351" s="25"/>
       <c r="O351" s="25"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="25"/>
       <c r="B352" s="25"/>
       <c r="C352" s="25"/>
@@ -6118,7 +6118,7 @@
       <c r="N352" s="25"/>
       <c r="O352" s="25"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="25"/>
       <c r="B353" s="25"/>
       <c r="C353" s="25"/>
@@ -6137,6 +6137,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A288:E288"/>
     <mergeCell ref="A311:O311"/>
     <mergeCell ref="A321:E321"/>
@@ -6150,11 +6155,6 @@
     <mergeCell ref="A245:O245"/>
     <mergeCell ref="A255:E255"/>
     <mergeCell ref="A278:O278"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6168,663 +6168,663 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="3"/>
-    <col min="257" max="257" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="9.1796875" style="3"/>
+    <col min="257" max="257" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="3"/>
-    <col min="513" max="513" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="267" max="512" width="9.1796875" style="3"/>
+    <col min="513" max="513" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="516" max="516" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="519" max="520" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="3"/>
-    <col min="769" max="769" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="519" max="520" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="523" max="768" width="9.1796875" style="3"/>
+    <col min="769" max="769" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="772" max="772" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="3"/>
-    <col min="1025" max="1025" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="779" max="1024" width="9.1796875" style="3"/>
+    <col min="1025" max="1025" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="1028" max="1028" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1032" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="3"/>
-    <col min="1281" max="1281" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1032" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1280" width="9.1796875" style="3"/>
+    <col min="1281" max="1281" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="1284" max="1284" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1288" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="3"/>
-    <col min="1537" max="1537" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1288" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1536" width="9.1796875" style="3"/>
+    <col min="1537" max="1537" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="1540" max="1540" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1544" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="3"/>
-    <col min="1793" max="1793" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1544" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1792" width="9.1796875" style="3"/>
+    <col min="1793" max="1793" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="1796" max="1796" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1800" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="3"/>
-    <col min="2049" max="2049" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1800" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1803" max="2048" width="9.1796875" style="3"/>
+    <col min="2049" max="2049" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2052" max="2052" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2056" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="3"/>
-    <col min="2305" max="2305" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2056" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2304" width="9.1796875" style="3"/>
+    <col min="2305" max="2305" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2308" max="2308" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2312" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="3"/>
-    <col min="2561" max="2561" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2312" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2560" width="9.1796875" style="3"/>
+    <col min="2561" max="2561" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2564" max="2564" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2568" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="3"/>
-    <col min="2817" max="2817" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2568" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2816" width="9.1796875" style="3"/>
+    <col min="2817" max="2817" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2820" max="2820" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2824" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="3"/>
-    <col min="3073" max="3073" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2824" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2827" max="3072" width="9.1796875" style="3"/>
+    <col min="3073" max="3073" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3076" max="3076" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3080" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="3"/>
-    <col min="3329" max="3329" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3080" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3328" width="9.1796875" style="3"/>
+    <col min="3329" max="3329" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3332" max="3332" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3336" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="3"/>
-    <col min="3585" max="3585" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3336" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3584" width="9.1796875" style="3"/>
+    <col min="3585" max="3585" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3588" max="3588" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3592" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="3"/>
-    <col min="3841" max="3841" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3592" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3840" width="9.1796875" style="3"/>
+    <col min="3841" max="3841" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3844" max="3844" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3848" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="3"/>
-    <col min="4097" max="4097" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3848" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3851" max="4096" width="9.1796875" style="3"/>
+    <col min="4097" max="4097" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4100" max="4100" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4104" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="3"/>
-    <col min="4353" max="4353" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4104" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4352" width="9.1796875" style="3"/>
+    <col min="4353" max="4353" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4356" max="4356" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4360" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="3"/>
-    <col min="4609" max="4609" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4360" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4608" width="9.1796875" style="3"/>
+    <col min="4609" max="4609" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4612" max="4612" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4616" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="3"/>
-    <col min="4865" max="4865" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4616" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4864" width="9.1796875" style="3"/>
+    <col min="4865" max="4865" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4868" max="4868" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4872" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="3"/>
-    <col min="5121" max="5121" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4872" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4875" max="5120" width="9.1796875" style="3"/>
+    <col min="5121" max="5121" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5124" max="5124" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5128" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="3"/>
-    <col min="5377" max="5377" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5128" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5376" width="9.1796875" style="3"/>
+    <col min="5377" max="5377" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5380" max="5380" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5384" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="3"/>
-    <col min="5633" max="5633" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5384" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5632" width="9.1796875" style="3"/>
+    <col min="5633" max="5633" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5636" max="5636" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5640" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="3"/>
-    <col min="5889" max="5889" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5640" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5888" width="9.1796875" style="3"/>
+    <col min="5889" max="5889" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5892" max="5892" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5896" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="3"/>
-    <col min="6145" max="6145" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5896" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5899" max="6144" width="9.1796875" style="3"/>
+    <col min="6145" max="6145" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6148" max="6148" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6152" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="3"/>
-    <col min="6401" max="6401" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6152" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6400" width="9.1796875" style="3"/>
+    <col min="6401" max="6401" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6404" max="6404" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6408" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="3"/>
-    <col min="6657" max="6657" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6408" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6656" width="9.1796875" style="3"/>
+    <col min="6657" max="6657" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6660" max="6660" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6664" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="3"/>
-    <col min="6913" max="6913" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6664" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6912" width="9.1796875" style="3"/>
+    <col min="6913" max="6913" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6916" max="6916" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6920" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="3"/>
-    <col min="7169" max="7169" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6920" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6923" max="7168" width="9.1796875" style="3"/>
+    <col min="7169" max="7169" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7172" max="7172" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7176" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="3"/>
-    <col min="7425" max="7425" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7176" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7424" width="9.1796875" style="3"/>
+    <col min="7425" max="7425" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7428" max="7428" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7432" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="3"/>
-    <col min="7681" max="7681" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7432" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7680" width="9.1796875" style="3"/>
+    <col min="7681" max="7681" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7684" max="7684" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7688" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="3"/>
-    <col min="7937" max="7937" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7688" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7936" width="9.1796875" style="3"/>
+    <col min="7937" max="7937" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7940" max="7940" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7944" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="3"/>
-    <col min="8193" max="8193" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7944" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7947" max="8192" width="9.1796875" style="3"/>
+    <col min="8193" max="8193" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8196" max="8196" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8200" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="3"/>
-    <col min="8449" max="8449" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8200" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8448" width="9.1796875" style="3"/>
+    <col min="8449" max="8449" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8452" max="8452" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8456" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="3"/>
-    <col min="8705" max="8705" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8456" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8704" width="9.1796875" style="3"/>
+    <col min="8705" max="8705" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8708" max="8708" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8712" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="3"/>
-    <col min="8961" max="8961" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8712" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8960" width="9.1796875" style="3"/>
+    <col min="8961" max="8961" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8964" max="8964" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8968" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="3"/>
-    <col min="9217" max="9217" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8968" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8971" max="9216" width="9.1796875" style="3"/>
+    <col min="9217" max="9217" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9220" max="9220" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9224" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="3"/>
-    <col min="9473" max="9473" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9224" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9472" width="9.1796875" style="3"/>
+    <col min="9473" max="9473" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9476" max="9476" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9480" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="3"/>
-    <col min="9729" max="9729" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9480" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9728" width="9.1796875" style="3"/>
+    <col min="9729" max="9729" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9732" max="9732" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9736" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="3"/>
-    <col min="9985" max="9985" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9736" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9984" width="9.1796875" style="3"/>
+    <col min="9985" max="9985" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9988" max="9988" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9992" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="3"/>
-    <col min="10241" max="10241" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9992" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9995" max="10240" width="9.1796875" style="3"/>
+    <col min="10241" max="10241" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="10244" max="10244" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10248" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="3"/>
-    <col min="10497" max="10497" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10248" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10496" width="9.1796875" style="3"/>
+    <col min="10497" max="10497" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="10500" max="10500" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10504" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="3"/>
-    <col min="10753" max="10753" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10504" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10752" width="9.1796875" style="3"/>
+    <col min="10753" max="10753" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="10756" max="10756" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10760" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="3"/>
-    <col min="11009" max="11009" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10760" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10763" max="11008" width="9.1796875" style="3"/>
+    <col min="11009" max="11009" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11012" max="11012" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11016" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="3"/>
-    <col min="11265" max="11265" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11016" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11264" width="9.1796875" style="3"/>
+    <col min="11265" max="11265" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11268" max="11268" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11272" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="3"/>
-    <col min="11521" max="11521" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11272" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11520" width="9.1796875" style="3"/>
+    <col min="11521" max="11521" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11524" max="11524" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11528" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="3"/>
-    <col min="11777" max="11777" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11528" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11776" width="9.1796875" style="3"/>
+    <col min="11777" max="11777" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11780" max="11780" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11784" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="3"/>
-    <col min="12033" max="12033" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11784" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11787" max="12032" width="9.1796875" style="3"/>
+    <col min="12033" max="12033" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="12036" max="12036" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12040" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="3"/>
-    <col min="12289" max="12289" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12040" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12288" width="9.1796875" style="3"/>
+    <col min="12289" max="12289" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="12292" max="12292" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12296" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="3"/>
-    <col min="12545" max="12545" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12296" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12544" width="9.1796875" style="3"/>
+    <col min="12545" max="12545" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="12548" max="12548" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12552" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="3"/>
-    <col min="12801" max="12801" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12552" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12800" width="9.1796875" style="3"/>
+    <col min="12801" max="12801" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="12804" max="12804" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12808" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="3"/>
-    <col min="13057" max="13057" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12808" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12811" max="13056" width="9.1796875" style="3"/>
+    <col min="13057" max="13057" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13060" max="13060" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13064" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="3"/>
-    <col min="13313" max="13313" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13064" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13312" width="9.1796875" style="3"/>
+    <col min="13313" max="13313" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13316" max="13316" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13320" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="3"/>
-    <col min="13569" max="13569" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13320" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13568" width="9.1796875" style="3"/>
+    <col min="13569" max="13569" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13572" max="13572" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13576" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="3"/>
-    <col min="13825" max="13825" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13576" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13824" width="9.1796875" style="3"/>
+    <col min="13825" max="13825" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13828" max="13828" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13832" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="3"/>
-    <col min="14081" max="14081" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13832" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13835" max="14080" width="9.1796875" style="3"/>
+    <col min="14081" max="14081" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="14084" max="14084" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14088" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="3"/>
-    <col min="14337" max="14337" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14088" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14336" width="9.1796875" style="3"/>
+    <col min="14337" max="14337" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="14340" max="14340" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14344" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="3"/>
-    <col min="14593" max="14593" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14344" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14592" width="9.1796875" style="3"/>
+    <col min="14593" max="14593" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="14596" max="14596" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14600" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="3"/>
-    <col min="14849" max="14849" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14600" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14848" width="9.1796875" style="3"/>
+    <col min="14849" max="14849" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="14852" max="14852" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14856" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="3"/>
-    <col min="15105" max="15105" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14856" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14859" max="15104" width="9.1796875" style="3"/>
+    <col min="15105" max="15105" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="15108" max="15108" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15112" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="3"/>
-    <col min="15361" max="15361" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15112" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15360" width="9.1796875" style="3"/>
+    <col min="15361" max="15361" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="15364" max="15364" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15368" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="3"/>
-    <col min="15617" max="15617" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15368" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15616" width="9.1796875" style="3"/>
+    <col min="15617" max="15617" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="15620" max="15620" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15624" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="3"/>
-    <col min="15873" max="15873" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15624" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15872" width="9.1796875" style="3"/>
+    <col min="15873" max="15873" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="15876" max="15876" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15880" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="3"/>
-    <col min="16129" max="16129" width="72.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15880" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15883" max="16128" width="9.1796875" style="3"/>
+    <col min="16129" max="16129" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="16132" max="16132" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16136" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="3"/>
+    <col min="16133" max="16133" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16136" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="17.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6836,32 +6836,32 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -6873,7 +6873,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -6885,7 +6885,7 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -6897,20 +6897,20 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -6918,7 +6918,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -6926,10 +6926,10 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -6937,7 +6937,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -6945,7 +6945,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6953,7 +6953,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -6961,17 +6961,17 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -6979,7 +6979,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -6987,7 +6987,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -6995,7 +6995,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -7003,20 +7003,20 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -7024,7 +7024,7 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -7032,7 +7032,7 @@
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -7040,7 +7040,7 @@
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -7048,17 +7048,17 @@
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -7070,7 +7070,7 @@
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
@@ -7082,7 +7082,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
@@ -7094,13 +7094,13 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -7111,7 +7111,7 @@
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="E51" s="25"/>
@@ -7120,7 +7120,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="E52" s="25"/>
@@ -7129,7 +7129,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
@@ -7140,7 +7140,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
@@ -7151,7 +7151,7 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
@@ -7162,7 +7162,7 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
@@ -7173,7 +7173,7 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
@@ -7184,7 +7184,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="E58" s="25"/>
@@ -7193,7 +7193,7 @@
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
@@ -7204,7 +7204,7 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
@@ -7215,7 +7215,7 @@
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
@@ -7226,7 +7226,7 @@
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
@@ -7237,7 +7237,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
@@ -7248,7 +7248,7 @@
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
       <c r="E64" s="25"/>
@@ -7257,7 +7257,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
@@ -7268,7 +7268,7 @@
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
@@ -7279,7 +7279,7 @@
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
       <c r="E67" s="25"/>
@@ -7288,7 +7288,7 @@
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="25"/>
       <c r="B68" s="26"/>
       <c r="E68" s="25"/>
@@ -7297,7 +7297,7 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
@@ -7308,7 +7308,7 @@
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="25"/>
       <c r="B70" s="26"/>
       <c r="E70" s="25"/>
@@ -7317,7 +7317,7 @@
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="25"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
@@ -7328,7 +7328,7 @@
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="25"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
@@ -7339,7 +7339,7 @@
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="25"/>
       <c r="B73" s="26"/>
       <c r="E73" s="25"/>
@@ -7348,7 +7348,7 @@
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
@@ -7359,7 +7359,7 @@
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="25"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
@@ -7370,7 +7370,7 @@
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="25"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
@@ -7381,7 +7381,7 @@
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
@@ -7392,7 +7392,7 @@
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="26"/>
       <c r="E78" s="25"/>
@@ -7401,7 +7401,7 @@
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
@@ -7412,7 +7412,7 @@
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="26"/>
       <c r="E80" s="25"/>
@@ -7421,7 +7421,7 @@
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="26"/>
       <c r="E81" s="25"/>
@@ -7430,7 +7430,7 @@
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
@@ -7441,7 +7441,7 @@
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="E83" s="25"/>
@@ -7450,7 +7450,7 @@
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="26"/>
       <c r="C84" s="25"/>
@@ -7461,7 +7461,7 @@
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
       <c r="C85" s="25"/>
@@ -7472,7 +7472,7 @@
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="26"/>
       <c r="E86" s="25"/>
@@ -7481,7 +7481,7 @@
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="26"/>
       <c r="E87" s="25"/>
@@ -7490,7 +7490,7 @@
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="26"/>
       <c r="C88" s="25"/>
@@ -7501,7 +7501,7 @@
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="26"/>
       <c r="C89" s="25"/>
@@ -7512,7 +7512,7 @@
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="25"/>
       <c r="B90" s="26"/>
       <c r="C90" s="25"/>
@@ -7523,7 +7523,7 @@
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="26"/>
       <c r="C91" s="25"/>
@@ -7534,7 +7534,7 @@
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="26"/>
       <c r="C92" s="25"/>
@@ -7545,7 +7545,7 @@
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="26"/>
       <c r="C93" s="25"/>
@@ -7556,7 +7556,7 @@
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="26"/>
       <c r="C94" s="25"/>
@@ -7567,7 +7567,7 @@
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="26"/>
       <c r="C95" s="25"/>
@@ -7578,7 +7578,7 @@
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="26"/>
       <c r="C96" s="25"/>
@@ -7589,7 +7589,7 @@
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
@@ -7600,7 +7600,7 @@
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="26"/>
       <c r="C98" s="25"/>
@@ -7611,7 +7611,7 @@
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
       <c r="C99" s="25"/>
@@ -7622,7 +7622,7 @@
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="25"/>
       <c r="B100" s="26"/>
       <c r="C100" s="25"/>
@@ -7633,7 +7633,7 @@
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
       <c r="C101" s="25"/>
@@ -7644,7 +7644,7 @@
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="25"/>
@@ -7655,7 +7655,7 @@
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="25"/>
       <c r="B103" s="26"/>
       <c r="C103" s="25"/>
@@ -7666,7 +7666,7 @@
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
       <c r="E104" s="25"/>
@@ -7675,7 +7675,7 @@
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="25"/>
       <c r="B105" s="26"/>
       <c r="E105" s="25"/>
@@ -7684,7 +7684,7 @@
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="25"/>
       <c r="B106" s="26"/>
       <c r="E106" s="25"/>
@@ -7693,7 +7693,7 @@
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="25"/>
       <c r="B107" s="26"/>
       <c r="E107" s="25"/>
@@ -7702,7 +7702,7 @@
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="25"/>
       <c r="B108" s="26"/>
       <c r="E108" s="25"/>
@@ -7711,7 +7711,7 @@
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
       <c r="E109" s="25"/>
@@ -7720,7 +7720,7 @@
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
       <c r="E110" s="25"/>
@@ -7729,7 +7729,7 @@
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="25"/>
       <c r="B111" s="26"/>
       <c r="E111" s="25"/>
@@ -7738,7 +7738,7 @@
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="25"/>
       <c r="B112" s="26"/>
       <c r="E112" s="25"/>
@@ -7747,7 +7747,7 @@
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="25"/>
       <c r="B113" s="26"/>
       <c r="E113" s="25"/>
@@ -7756,7 +7756,7 @@
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="25"/>
       <c r="B114" s="26"/>
       <c r="E114" s="25"/>
@@ -7765,7 +7765,7 @@
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
       <c r="E115" s="25"/>
@@ -7774,7 +7774,7 @@
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
       <c r="E116" s="25"/>
@@ -7783,7 +7783,7 @@
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
       <c r="E117" s="25"/>
@@ -7792,7 +7792,7 @@
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
       <c r="E118" s="25"/>
@@ -7801,19 +7801,19 @@
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I119" s="25"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="25"/>
       <c r="I120" s="25"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="I121" s="25"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="I122" s="25"/>

--- a/Form_DLM_SurveyReport.xlsx
+++ b/Form_DLM_SurveyReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\APS-U\Assembly-Survey-Report-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Assembly-Survey-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1239631-55DB-46B0-A9DA-841BAC6BCD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58746F5B-B0B0-413C-9F68-11F369478739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>RMS</t>
-  </si>
-  <si>
     <t>ABS Max</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>M1/M2 data is not included in the statistics reported above.</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
   </si>
 </sst>
 </file>
@@ -917,9 +917,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
@@ -961,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,8 +1311,8 @@
   </sheetPr>
   <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,7 +1324,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1338,37 +1338,37 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="55"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="55"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="55"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="56"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="55"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="56"/>
     </row>
@@ -1422,7 +1422,7 @@
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
@@ -1467,18 +1467,18 @@
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="44"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="72"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="65"/>
-      <c r="H26" s="73"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="45"/>
@@ -1539,9 +1539,9 @@
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
@@ -1583,36 +1583,36 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
-      <c r="C36" s="14">
-        <f>SQRT((C26^2+C27^2+C28^2+C29^2+C30^2+C31^2+C32^2+C33^2)/8)</f>
-        <v>0</v>
+      <c r="C36" s="14" t="e">
+        <f>_xlfn.STDEV.P(C26:C33)</f>
+        <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="14">
-        <f t="shared" ref="D36:H36" si="1">SQRT((D26^2+D27^2+D28^2+D29^2+D30^2+D31^2+D32^2+D33^2)/8)</f>
-        <v>0</v>
+      <c r="D36" s="14" t="e">
+        <f t="shared" ref="D36:H36" si="1">_xlfn.STDEV.P(D26:D33)</f>
+        <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="80" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="80" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="80" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="16" cm="1">
         <f t="array" ref="C37">MAX(ABS(C26:C33))</f>
@@ -1626,15 +1626,15 @@
         <f t="array" ref="E37">MAX(ABS(E26:E33))</f>
         <v>0</v>
       </c>
-      <c r="F37" s="67" cm="1">
+      <c r="F37" s="66" cm="1">
         <f t="array" ref="F37">MAX(ABS(F26:F33))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="67" cm="1">
+      <c r="G37" s="66" cm="1">
         <f t="array" ref="G37">MAX(ABS(G26:G33))</f>
         <v>0</v>
       </c>
-      <c r="H37" s="67" cm="1">
+      <c r="H37" s="66" cm="1">
         <f t="array" ref="H37">MAX(ABS(H26:H33))</f>
         <v>0</v>
       </c>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>16</v>
+      <c r="C42" s="76" t="s">
+        <v>15</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
@@ -2457,11 +2457,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
@@ -2590,21 +2590,21 @@
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
@@ -3712,11 +3712,11 @@
       <c r="O89" s="25"/>
     </row>
     <row r="90" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
@@ -3845,21 +3845,21 @@
       <c r="B112" s="25"/>
     </row>
     <row r="113" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="80"/>
-      <c r="B113" s="80"/>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="80"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="80"/>
-      <c r="L113" s="80"/>
-      <c r="M113" s="80"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="80"/>
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="79"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="79"/>
+      <c r="K113" s="79"/>
+      <c r="L113" s="79"/>
+      <c r="M113" s="79"/>
+      <c r="N113" s="79"/>
+      <c r="O113" s="79"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="27"/>
@@ -4015,11 +4015,11 @@
       <c r="O122" s="25"/>
     </row>
     <row r="123" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
+      <c r="A123" s="79"/>
+      <c r="B123" s="79"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="27"/>
@@ -4148,21 +4148,21 @@
       <c r="B145" s="25"/>
     </row>
     <row r="146" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="80"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
-      <c r="F146" s="80"/>
-      <c r="G146" s="80"/>
-      <c r="H146" s="80"/>
-      <c r="I146" s="80"/>
-      <c r="J146" s="80"/>
-      <c r="K146" s="80"/>
-      <c r="L146" s="80"/>
-      <c r="M146" s="80"/>
-      <c r="N146" s="80"/>
-      <c r="O146" s="80"/>
+      <c r="A146" s="79"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="79"/>
+      <c r="I146" s="79"/>
+      <c r="J146" s="79"/>
+      <c r="K146" s="79"/>
+      <c r="L146" s="79"/>
+      <c r="M146" s="79"/>
+      <c r="N146" s="79"/>
+      <c r="O146" s="79"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
@@ -4335,11 +4335,11 @@
       <c r="O156" s="25"/>
     </row>
     <row r="157" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="80"/>
-      <c r="B157" s="80"/>
-      <c r="C157" s="80"/>
-      <c r="D157" s="80"/>
-      <c r="E157" s="80"/>
+      <c r="A157" s="79"/>
+      <c r="B157" s="79"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
@@ -4468,21 +4468,21 @@
       <c r="B179" s="25"/>
     </row>
     <row r="180" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="80"/>
-      <c r="B180" s="80"/>
-      <c r="C180" s="80"/>
-      <c r="D180" s="80"/>
-      <c r="E180" s="80"/>
-      <c r="F180" s="80"/>
-      <c r="G180" s="80"/>
-      <c r="H180" s="80"/>
-      <c r="I180" s="80"/>
-      <c r="J180" s="80"/>
-      <c r="K180" s="80"/>
-      <c r="L180" s="80"/>
-      <c r="M180" s="80"/>
-      <c r="N180" s="80"/>
-      <c r="O180" s="80"/>
+      <c r="A180" s="79"/>
+      <c r="B180" s="79"/>
+      <c r="C180" s="79"/>
+      <c r="D180" s="79"/>
+      <c r="E180" s="79"/>
+      <c r="F180" s="79"/>
+      <c r="G180" s="79"/>
+      <c r="H180" s="79"/>
+      <c r="I180" s="79"/>
+      <c r="J180" s="79"/>
+      <c r="K180" s="79"/>
+      <c r="L180" s="79"/>
+      <c r="M180" s="79"/>
+      <c r="N180" s="79"/>
+      <c r="O180" s="79"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
@@ -4621,11 +4621,11 @@
       <c r="O188" s="25"/>
     </row>
     <row r="189" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="80"/>
-      <c r="B189" s="80"/>
-      <c r="C189" s="80"/>
-      <c r="D189" s="80"/>
-      <c r="E189" s="80"/>
+      <c r="A189" s="79"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="79"/>
+      <c r="D189" s="79"/>
+      <c r="E189" s="79"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
@@ -4754,21 +4754,21 @@
       <c r="B211" s="25"/>
     </row>
     <row r="212" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="80"/>
-      <c r="B212" s="80"/>
-      <c r="C212" s="80"/>
-      <c r="D212" s="80"/>
-      <c r="E212" s="80"/>
-      <c r="F212" s="80"/>
-      <c r="G212" s="80"/>
-      <c r="H212" s="80"/>
-      <c r="I212" s="80"/>
-      <c r="J212" s="80"/>
-      <c r="K212" s="80"/>
-      <c r="L212" s="80"/>
-      <c r="M212" s="80"/>
-      <c r="N212" s="80"/>
-      <c r="O212" s="80"/>
+      <c r="A212" s="79"/>
+      <c r="B212" s="79"/>
+      <c r="C212" s="79"/>
+      <c r="D212" s="79"/>
+      <c r="E212" s="79"/>
+      <c r="F212" s="79"/>
+      <c r="G212" s="79"/>
+      <c r="H212" s="79"/>
+      <c r="I212" s="79"/>
+      <c r="J212" s="79"/>
+      <c r="K212" s="79"/>
+      <c r="L212" s="79"/>
+      <c r="M212" s="79"/>
+      <c r="N212" s="79"/>
+      <c r="O212" s="79"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="27"/>
@@ -4924,11 +4924,11 @@
       <c r="O221" s="25"/>
     </row>
     <row r="222" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="80"/>
-      <c r="B222" s="80"/>
-      <c r="C222" s="80"/>
-      <c r="D222" s="80"/>
-      <c r="E222" s="80"/>
+      <c r="A222" s="79"/>
+      <c r="B222" s="79"/>
+      <c r="C222" s="79"/>
+      <c r="D222" s="79"/>
+      <c r="E222" s="79"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="27"/>
@@ -5057,21 +5057,21 @@
       <c r="B244" s="25"/>
     </row>
     <row r="245" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="80"/>
-      <c r="B245" s="80"/>
-      <c r="C245" s="80"/>
-      <c r="D245" s="80"/>
-      <c r="E245" s="80"/>
-      <c r="F245" s="80"/>
-      <c r="G245" s="80"/>
-      <c r="H245" s="80"/>
-      <c r="I245" s="80"/>
-      <c r="J245" s="80"/>
-      <c r="K245" s="80"/>
-      <c r="L245" s="80"/>
-      <c r="M245" s="80"/>
-      <c r="N245" s="80"/>
-      <c r="O245" s="80"/>
+      <c r="A245" s="79"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="27"/>
@@ -5227,11 +5227,11 @@
       <c r="O254" s="25"/>
     </row>
     <row r="255" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="80"/>
-      <c r="B255" s="80"/>
-      <c r="C255" s="80"/>
-      <c r="D255" s="80"/>
-      <c r="E255" s="80"/>
+      <c r="A255" s="79"/>
+      <c r="B255" s="79"/>
+      <c r="C255" s="79"/>
+      <c r="D255" s="79"/>
+      <c r="E255" s="79"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
@@ -5360,21 +5360,21 @@
       <c r="B277" s="25"/>
     </row>
     <row r="278" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="80"/>
-      <c r="B278" s="80"/>
-      <c r="C278" s="80"/>
-      <c r="D278" s="80"/>
-      <c r="E278" s="80"/>
-      <c r="F278" s="80"/>
-      <c r="G278" s="80"/>
-      <c r="H278" s="80"/>
-      <c r="I278" s="80"/>
-      <c r="J278" s="80"/>
-      <c r="K278" s="80"/>
-      <c r="L278" s="80"/>
-      <c r="M278" s="80"/>
-      <c r="N278" s="80"/>
-      <c r="O278" s="80"/>
+      <c r="A278" s="79"/>
+      <c r="B278" s="79"/>
+      <c r="C278" s="79"/>
+      <c r="D278" s="79"/>
+      <c r="E278" s="79"/>
+      <c r="F278" s="79"/>
+      <c r="G278" s="79"/>
+      <c r="H278" s="79"/>
+      <c r="I278" s="79"/>
+      <c r="J278" s="79"/>
+      <c r="K278" s="79"/>
+      <c r="L278" s="79"/>
+      <c r="M278" s="79"/>
+      <c r="N278" s="79"/>
+      <c r="O278" s="79"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="27"/>
@@ -5530,11 +5530,11 @@
       <c r="O287" s="25"/>
     </row>
     <row r="288" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="80"/>
-      <c r="B288" s="80"/>
-      <c r="C288" s="80"/>
-      <c r="D288" s="80"/>
-      <c r="E288" s="80"/>
+      <c r="A288" s="79"/>
+      <c r="B288" s="79"/>
+      <c r="C288" s="79"/>
+      <c r="D288" s="79"/>
+      <c r="E288" s="79"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="27"/>
@@ -5663,21 +5663,21 @@
       <c r="B310" s="25"/>
     </row>
     <row r="311" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="80"/>
-      <c r="B311" s="80"/>
-      <c r="C311" s="80"/>
-      <c r="D311" s="80"/>
-      <c r="E311" s="80"/>
-      <c r="F311" s="80"/>
-      <c r="G311" s="80"/>
-      <c r="H311" s="80"/>
-      <c r="I311" s="80"/>
-      <c r="J311" s="80"/>
-      <c r="K311" s="80"/>
-      <c r="L311" s="80"/>
-      <c r="M311" s="80"/>
-      <c r="N311" s="80"/>
-      <c r="O311" s="80"/>
+      <c r="A311" s="79"/>
+      <c r="B311" s="79"/>
+      <c r="C311" s="79"/>
+      <c r="D311" s="79"/>
+      <c r="E311" s="79"/>
+      <c r="F311" s="79"/>
+      <c r="G311" s="79"/>
+      <c r="H311" s="79"/>
+      <c r="I311" s="79"/>
+      <c r="J311" s="79"/>
+      <c r="K311" s="79"/>
+      <c r="L311" s="79"/>
+      <c r="M311" s="79"/>
+      <c r="N311" s="79"/>
+      <c r="O311" s="79"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="27"/>
@@ -5833,11 +5833,11 @@
       <c r="O320" s="25"/>
     </row>
     <row r="321" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="80"/>
-      <c r="B321" s="80"/>
-      <c r="C321" s="80"/>
-      <c r="D321" s="80"/>
-      <c r="E321" s="80"/>
+      <c r="A321" s="79"/>
+      <c r="B321" s="79"/>
+      <c r="C321" s="79"/>
+      <c r="D321" s="79"/>
+      <c r="E321" s="79"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="27"/>
@@ -5966,21 +5966,21 @@
       <c r="B343" s="25"/>
     </row>
     <row r="344" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="80"/>
-      <c r="B344" s="80"/>
-      <c r="C344" s="80"/>
-      <c r="D344" s="80"/>
-      <c r="E344" s="80"/>
-      <c r="F344" s="80"/>
-      <c r="G344" s="80"/>
-      <c r="H344" s="80"/>
-      <c r="I344" s="80"/>
-      <c r="J344" s="80"/>
-      <c r="K344" s="80"/>
-      <c r="L344" s="80"/>
-      <c r="M344" s="80"/>
-      <c r="N344" s="80"/>
-      <c r="O344" s="80"/>
+      <c r="A344" s="79"/>
+      <c r="B344" s="79"/>
+      <c r="C344" s="79"/>
+      <c r="D344" s="79"/>
+      <c r="E344" s="79"/>
+      <c r="F344" s="79"/>
+      <c r="G344" s="79"/>
+      <c r="H344" s="79"/>
+      <c r="I344" s="79"/>
+      <c r="J344" s="79"/>
+      <c r="K344" s="79"/>
+      <c r="L344" s="79"/>
+      <c r="M344" s="79"/>
+      <c r="N344" s="79"/>
+      <c r="O344" s="79"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="27"/>
@@ -6137,11 +6137,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A288:E288"/>
     <mergeCell ref="A311:O311"/>
     <mergeCell ref="A321:E321"/>
@@ -6155,6 +6150,11 @@
     <mergeCell ref="A245:O245"/>
     <mergeCell ref="A255:E255"/>
     <mergeCell ref="A278:O278"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6813,16 +6813,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>

--- a/Form_DLM_SurveyReport.xlsx
+++ b/Form_DLM_SurveyReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Assembly-Survey-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58746F5B-B0B0-413C-9F68-11F369478739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B74BDF-61AF-4C69-AB22-071985B6A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,6 +947,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -958,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,7 +1312,7 @@
   <dimension ref="B1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,15 +1597,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="80" t="e">
+      <c r="F36" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="80" t="e">
+      <c r="G36" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="80" t="e">
+      <c r="H36" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1683,11 +1683,11 @@
       <c r="B42" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
       <c r="H42" s="43"/>
@@ -2457,11 +2457,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
@@ -2590,21 +2590,21 @@
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
@@ -3712,11 +3712,11 @@
       <c r="O89" s="25"/>
     </row>
     <row r="90" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
@@ -3845,21 +3845,21 @@
       <c r="B112" s="25"/>
     </row>
     <row r="113" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="79"/>
-      <c r="B113" s="79"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="79"/>
-      <c r="M113" s="79"/>
-      <c r="N113" s="79"/>
-      <c r="O113" s="79"/>
+      <c r="A113" s="80"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="80"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="27"/>
@@ -4015,11 +4015,11 @@
       <c r="O122" s="25"/>
     </row>
     <row r="123" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="79"/>
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="27"/>
@@ -4148,21 +4148,21 @@
       <c r="B145" s="25"/>
     </row>
     <row r="146" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="79"/>
-      <c r="B146" s="79"/>
-      <c r="C146" s="79"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="79"/>
-      <c r="I146" s="79"/>
-      <c r="J146" s="79"/>
-      <c r="K146" s="79"/>
-      <c r="L146" s="79"/>
-      <c r="M146" s="79"/>
-      <c r="N146" s="79"/>
-      <c r="O146" s="79"/>
+      <c r="A146" s="80"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
+      <c r="K146" s="80"/>
+      <c r="L146" s="80"/>
+      <c r="M146" s="80"/>
+      <c r="N146" s="80"/>
+      <c r="O146" s="80"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
@@ -4335,11 +4335,11 @@
       <c r="O156" s="25"/>
     </row>
     <row r="157" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="79"/>
-      <c r="B157" s="79"/>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
+      <c r="A157" s="80"/>
+      <c r="B157" s="80"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
@@ -4468,21 +4468,21 @@
       <c r="B179" s="25"/>
     </row>
     <row r="180" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="79"/>
-      <c r="B180" s="79"/>
-      <c r="C180" s="79"/>
-      <c r="D180" s="79"/>
-      <c r="E180" s="79"/>
-      <c r="F180" s="79"/>
-      <c r="G180" s="79"/>
-      <c r="H180" s="79"/>
-      <c r="I180" s="79"/>
-      <c r="J180" s="79"/>
-      <c r="K180" s="79"/>
-      <c r="L180" s="79"/>
-      <c r="M180" s="79"/>
-      <c r="N180" s="79"/>
-      <c r="O180" s="79"/>
+      <c r="A180" s="80"/>
+      <c r="B180" s="80"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+      <c r="E180" s="80"/>
+      <c r="F180" s="80"/>
+      <c r="G180" s="80"/>
+      <c r="H180" s="80"/>
+      <c r="I180" s="80"/>
+      <c r="J180" s="80"/>
+      <c r="K180" s="80"/>
+      <c r="L180" s="80"/>
+      <c r="M180" s="80"/>
+      <c r="N180" s="80"/>
+      <c r="O180" s="80"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
@@ -4621,11 +4621,11 @@
       <c r="O188" s="25"/>
     </row>
     <row r="189" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="79"/>
-      <c r="B189" s="79"/>
-      <c r="C189" s="79"/>
-      <c r="D189" s="79"/>
-      <c r="E189" s="79"/>
+      <c r="A189" s="80"/>
+      <c r="B189" s="80"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="80"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
@@ -4754,21 +4754,21 @@
       <c r="B211" s="25"/>
     </row>
     <row r="212" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="79"/>
-      <c r="B212" s="79"/>
-      <c r="C212" s="79"/>
-      <c r="D212" s="79"/>
-      <c r="E212" s="79"/>
-      <c r="F212" s="79"/>
-      <c r="G212" s="79"/>
-      <c r="H212" s="79"/>
-      <c r="I212" s="79"/>
-      <c r="J212" s="79"/>
-      <c r="K212" s="79"/>
-      <c r="L212" s="79"/>
-      <c r="M212" s="79"/>
-      <c r="N212" s="79"/>
-      <c r="O212" s="79"/>
+      <c r="A212" s="80"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="80"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
+      <c r="G212" s="80"/>
+      <c r="H212" s="80"/>
+      <c r="I212" s="80"/>
+      <c r="J212" s="80"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="80"/>
+      <c r="M212" s="80"/>
+      <c r="N212" s="80"/>
+      <c r="O212" s="80"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="27"/>
@@ -4924,11 +4924,11 @@
       <c r="O221" s="25"/>
     </row>
     <row r="222" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="79"/>
-      <c r="B222" s="79"/>
-      <c r="C222" s="79"/>
-      <c r="D222" s="79"/>
-      <c r="E222" s="79"/>
+      <c r="A222" s="80"/>
+      <c r="B222" s="80"/>
+      <c r="C222" s="80"/>
+      <c r="D222" s="80"/>
+      <c r="E222" s="80"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="27"/>
@@ -5057,21 +5057,21 @@
       <c r="B244" s="25"/>
     </row>
     <row r="245" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="79"/>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
-      <c r="N245" s="79"/>
-      <c r="O245" s="79"/>
+      <c r="A245" s="80"/>
+      <c r="B245" s="80"/>
+      <c r="C245" s="80"/>
+      <c r="D245" s="80"/>
+      <c r="E245" s="80"/>
+      <c r="F245" s="80"/>
+      <c r="G245" s="80"/>
+      <c r="H245" s="80"/>
+      <c r="I245" s="80"/>
+      <c r="J245" s="80"/>
+      <c r="K245" s="80"/>
+      <c r="L245" s="80"/>
+      <c r="M245" s="80"/>
+      <c r="N245" s="80"/>
+      <c r="O245" s="80"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="27"/>
@@ -5227,11 +5227,11 @@
       <c r="O254" s="25"/>
     </row>
     <row r="255" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="79"/>
-      <c r="B255" s="79"/>
-      <c r="C255" s="79"/>
-      <c r="D255" s="79"/>
-      <c r="E255" s="79"/>
+      <c r="A255" s="80"/>
+      <c r="B255" s="80"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="80"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
@@ -5360,21 +5360,21 @@
       <c r="B277" s="25"/>
     </row>
     <row r="278" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="79"/>
-      <c r="B278" s="79"/>
-      <c r="C278" s="79"/>
-      <c r="D278" s="79"/>
-      <c r="E278" s="79"/>
-      <c r="F278" s="79"/>
-      <c r="G278" s="79"/>
-      <c r="H278" s="79"/>
-      <c r="I278" s="79"/>
-      <c r="J278" s="79"/>
-      <c r="K278" s="79"/>
-      <c r="L278" s="79"/>
-      <c r="M278" s="79"/>
-      <c r="N278" s="79"/>
-      <c r="O278" s="79"/>
+      <c r="A278" s="80"/>
+      <c r="B278" s="80"/>
+      <c r="C278" s="80"/>
+      <c r="D278" s="80"/>
+      <c r="E278" s="80"/>
+      <c r="F278" s="80"/>
+      <c r="G278" s="80"/>
+      <c r="H278" s="80"/>
+      <c r="I278" s="80"/>
+      <c r="J278" s="80"/>
+      <c r="K278" s="80"/>
+      <c r="L278" s="80"/>
+      <c r="M278" s="80"/>
+      <c r="N278" s="80"/>
+      <c r="O278" s="80"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="27"/>
@@ -5530,11 +5530,11 @@
       <c r="O287" s="25"/>
     </row>
     <row r="288" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="79"/>
-      <c r="B288" s="79"/>
-      <c r="C288" s="79"/>
-      <c r="D288" s="79"/>
-      <c r="E288" s="79"/>
+      <c r="A288" s="80"/>
+      <c r="B288" s="80"/>
+      <c r="C288" s="80"/>
+      <c r="D288" s="80"/>
+      <c r="E288" s="80"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="27"/>
@@ -5663,21 +5663,21 @@
       <c r="B310" s="25"/>
     </row>
     <row r="311" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="79"/>
-      <c r="B311" s="79"/>
-      <c r="C311" s="79"/>
-      <c r="D311" s="79"/>
-      <c r="E311" s="79"/>
-      <c r="F311" s="79"/>
-      <c r="G311" s="79"/>
-      <c r="H311" s="79"/>
-      <c r="I311" s="79"/>
-      <c r="J311" s="79"/>
-      <c r="K311" s="79"/>
-      <c r="L311" s="79"/>
-      <c r="M311" s="79"/>
-      <c r="N311" s="79"/>
-      <c r="O311" s="79"/>
+      <c r="A311" s="80"/>
+      <c r="B311" s="80"/>
+      <c r="C311" s="80"/>
+      <c r="D311" s="80"/>
+      <c r="E311" s="80"/>
+      <c r="F311" s="80"/>
+      <c r="G311" s="80"/>
+      <c r="H311" s="80"/>
+      <c r="I311" s="80"/>
+      <c r="J311" s="80"/>
+      <c r="K311" s="80"/>
+      <c r="L311" s="80"/>
+      <c r="M311" s="80"/>
+      <c r="N311" s="80"/>
+      <c r="O311" s="80"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="27"/>
@@ -5833,11 +5833,11 @@
       <c r="O320" s="25"/>
     </row>
     <row r="321" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="79"/>
-      <c r="B321" s="79"/>
-      <c r="C321" s="79"/>
-      <c r="D321" s="79"/>
-      <c r="E321" s="79"/>
+      <c r="A321" s="80"/>
+      <c r="B321" s="80"/>
+      <c r="C321" s="80"/>
+      <c r="D321" s="80"/>
+      <c r="E321" s="80"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="27"/>
@@ -5966,21 +5966,21 @@
       <c r="B343" s="25"/>
     </row>
     <row r="344" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="79"/>
-      <c r="B344" s="79"/>
-      <c r="C344" s="79"/>
-      <c r="D344" s="79"/>
-      <c r="E344" s="79"/>
-      <c r="F344" s="79"/>
-      <c r="G344" s="79"/>
-      <c r="H344" s="79"/>
-      <c r="I344" s="79"/>
-      <c r="J344" s="79"/>
-      <c r="K344" s="79"/>
-      <c r="L344" s="79"/>
-      <c r="M344" s="79"/>
-      <c r="N344" s="79"/>
-      <c r="O344" s="79"/>
+      <c r="A344" s="80"/>
+      <c r="B344" s="80"/>
+      <c r="C344" s="80"/>
+      <c r="D344" s="80"/>
+      <c r="E344" s="80"/>
+      <c r="F344" s="80"/>
+      <c r="G344" s="80"/>
+      <c r="H344" s="80"/>
+      <c r="I344" s="80"/>
+      <c r="J344" s="80"/>
+      <c r="K344" s="80"/>
+      <c r="L344" s="80"/>
+      <c r="M344" s="80"/>
+      <c r="N344" s="80"/>
+      <c r="O344" s="80"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="27"/>
@@ -6813,16 +6813,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>

--- a/Form_DLM_SurveyReport.xlsx
+++ b/Form_DLM_SurveyReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Assembly-Survey-Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B74BDF-61AF-4C69-AB22-071985B6A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD73B9-1A96-4FF7-A31A-D368DE0117F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>APS Upgrade</t>
   </si>
@@ -85,9 +85,6 @@
     <t>DLM#_###</t>
   </si>
   <si>
-    <t>NOTE:</t>
-  </si>
-  <si>
     <t>Report created:</t>
   </si>
   <si>
@@ -106,10 +103,16 @@
     <t>Date Measured:</t>
   </si>
   <si>
-    <t>M1/M2 data is not included in the statistics reported above.</t>
+    <t>Std. Dev.</t>
   </si>
   <si>
-    <t>Std. Dev.</t>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Positive pitch/yaw/roll angles represent counter-clockwise rotations of the magnet around the X/Y/Z axes from the magnet axis defined during fiducialization, and do not necessarily represent the true deviations of the magnet axis from the beam axis.</t>
+  </si>
+  <si>
+    <t>M1 data is not included in the statistics reported above.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +196,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -226,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -405,37 +416,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -624,43 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -725,12 +668,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,13 +838,13 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -837,23 +853,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
@@ -864,28 +868,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -896,22 +894,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -923,19 +921,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -944,23 +942,47 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,8 +1333,8 @@
   </sheetPr>
   <dimension ref="B1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,54 +1351,54 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="55"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="55" t="s">
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="55" t="s">
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="56"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="55" t="s">
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1422,7 +1444,7 @@
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
@@ -1467,21 +1489,21 @@
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="44"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="72"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="45"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="34"/>
@@ -1490,7 +1512,7 @@
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="45"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="34"/>
@@ -1499,7 +1521,7 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="45"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="34"/>
@@ -1508,7 +1530,7 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="45"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="34"/>
@@ -1517,7 +1539,7 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="45"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="34"/>
@@ -1526,7 +1548,7 @@
       <c r="H31" s="38"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="45"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="34"/>
@@ -1535,13 +1557,13 @@
       <c r="H32" s="38"/>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="46"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
@@ -1568,22 +1590,22 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="65" t="e">
+      <c r="F35" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="65" t="e">
+      <c r="G35" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="65" t="e">
+      <c r="H35" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>_xlfn.STDEV.P(C26:C33)</f>
@@ -1597,15 +1619,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="76" t="e">
+      <c r="F36" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="76" t="e">
+      <c r="G36" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="76" t="e">
+      <c r="H36" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1626,80 +1648,82 @@
         <f t="array" ref="E37">MAX(ABS(E26:E33))</f>
         <v>0</v>
       </c>
-      <c r="F37" s="66" cm="1">
+      <c r="F37" s="60" cm="1">
         <f t="array" ref="F37">MAX(ABS(F26:F33))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="66" cm="1">
+      <c r="G37" s="60" cm="1">
         <f t="array" ref="G37">MAX(ABS(G26:G33))</f>
         <v>0</v>
       </c>
-      <c r="H37" s="66" cm="1">
+      <c r="H37" s="60" cm="1">
         <f t="array" ref="H37">MAX(ABS(H26:H33))</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="50">
+      <c r="B40" s="46">
         <f t="shared" ref="B40:H40" si="2">B25</f>
         <v>0</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="54"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="51"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+      <c r="C42" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="78"/>
+    </row>
+    <row r="43" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="79"/>
+      <c r="C43" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="32"/>
@@ -1711,8 +1735,9 @@
       <c r="H44" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2457,11 +2482,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
@@ -2590,21 +2615,21 @@
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
@@ -3712,11 +3737,11 @@
       <c r="O89" s="25"/>
     </row>
     <row r="90" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
@@ -3845,21 +3870,21 @@
       <c r="B112" s="25"/>
     </row>
     <row r="113" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="80"/>
-      <c r="B113" s="80"/>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="80"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="80"/>
-      <c r="L113" s="80"/>
-      <c r="M113" s="80"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="80"/>
+      <c r="A113" s="71"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="71"/>
+      <c r="M113" s="71"/>
+      <c r="N113" s="71"/>
+      <c r="O113" s="71"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="27"/>
@@ -4015,11 +4040,11 @@
       <c r="O122" s="25"/>
     </row>
     <row r="123" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
+      <c r="A123" s="71"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="27"/>
@@ -4148,21 +4173,21 @@
       <c r="B145" s="25"/>
     </row>
     <row r="146" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="80"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
-      <c r="F146" s="80"/>
-      <c r="G146" s="80"/>
-      <c r="H146" s="80"/>
-      <c r="I146" s="80"/>
-      <c r="J146" s="80"/>
-      <c r="K146" s="80"/>
-      <c r="L146" s="80"/>
-      <c r="M146" s="80"/>
-      <c r="N146" s="80"/>
-      <c r="O146" s="80"/>
+      <c r="A146" s="71"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="71"/>
+      <c r="M146" s="71"/>
+      <c r="N146" s="71"/>
+      <c r="O146" s="71"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
@@ -4335,11 +4360,11 @@
       <c r="O156" s="25"/>
     </row>
     <row r="157" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="80"/>
-      <c r="B157" s="80"/>
-      <c r="C157" s="80"/>
-      <c r="D157" s="80"/>
-      <c r="E157" s="80"/>
+      <c r="A157" s="71"/>
+      <c r="B157" s="71"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
@@ -4468,21 +4493,21 @@
       <c r="B179" s="25"/>
     </row>
     <row r="180" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="80"/>
-      <c r="B180" s="80"/>
-      <c r="C180" s="80"/>
-      <c r="D180" s="80"/>
-      <c r="E180" s="80"/>
-      <c r="F180" s="80"/>
-      <c r="G180" s="80"/>
-      <c r="H180" s="80"/>
-      <c r="I180" s="80"/>
-      <c r="J180" s="80"/>
-      <c r="K180" s="80"/>
-      <c r="L180" s="80"/>
-      <c r="M180" s="80"/>
-      <c r="N180" s="80"/>
-      <c r="O180" s="80"/>
+      <c r="A180" s="71"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="71"/>
+      <c r="E180" s="71"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+      <c r="H180" s="71"/>
+      <c r="I180" s="71"/>
+      <c r="J180" s="71"/>
+      <c r="K180" s="71"/>
+      <c r="L180" s="71"/>
+      <c r="M180" s="71"/>
+      <c r="N180" s="71"/>
+      <c r="O180" s="71"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
@@ -4621,11 +4646,11 @@
       <c r="O188" s="25"/>
     </row>
     <row r="189" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="80"/>
-      <c r="B189" s="80"/>
-      <c r="C189" s="80"/>
-      <c r="D189" s="80"/>
-      <c r="E189" s="80"/>
+      <c r="A189" s="71"/>
+      <c r="B189" s="71"/>
+      <c r="C189" s="71"/>
+      <c r="D189" s="71"/>
+      <c r="E189" s="71"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
@@ -4754,21 +4779,21 @@
       <c r="B211" s="25"/>
     </row>
     <row r="212" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="80"/>
-      <c r="B212" s="80"/>
-      <c r="C212" s="80"/>
-      <c r="D212" s="80"/>
-      <c r="E212" s="80"/>
-      <c r="F212" s="80"/>
-      <c r="G212" s="80"/>
-      <c r="H212" s="80"/>
-      <c r="I212" s="80"/>
-      <c r="J212" s="80"/>
-      <c r="K212" s="80"/>
-      <c r="L212" s="80"/>
-      <c r="M212" s="80"/>
-      <c r="N212" s="80"/>
-      <c r="O212" s="80"/>
+      <c r="A212" s="71"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="71"/>
+      <c r="E212" s="71"/>
+      <c r="F212" s="71"/>
+      <c r="G212" s="71"/>
+      <c r="H212" s="71"/>
+      <c r="I212" s="71"/>
+      <c r="J212" s="71"/>
+      <c r="K212" s="71"/>
+      <c r="L212" s="71"/>
+      <c r="M212" s="71"/>
+      <c r="N212" s="71"/>
+      <c r="O212" s="71"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="27"/>
@@ -4924,11 +4949,11 @@
       <c r="O221" s="25"/>
     </row>
     <row r="222" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="80"/>
-      <c r="B222" s="80"/>
-      <c r="C222" s="80"/>
-      <c r="D222" s="80"/>
-      <c r="E222" s="80"/>
+      <c r="A222" s="71"/>
+      <c r="B222" s="71"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
+      <c r="E222" s="71"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="27"/>
@@ -5057,21 +5082,21 @@
       <c r="B244" s="25"/>
     </row>
     <row r="245" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="80"/>
-      <c r="B245" s="80"/>
-      <c r="C245" s="80"/>
-      <c r="D245" s="80"/>
-      <c r="E245" s="80"/>
-      <c r="F245" s="80"/>
-      <c r="G245" s="80"/>
-      <c r="H245" s="80"/>
-      <c r="I245" s="80"/>
-      <c r="J245" s="80"/>
-      <c r="K245" s="80"/>
-      <c r="L245" s="80"/>
-      <c r="M245" s="80"/>
-      <c r="N245" s="80"/>
-      <c r="O245" s="80"/>
+      <c r="A245" s="71"/>
+      <c r="B245" s="71"/>
+      <c r="C245" s="71"/>
+      <c r="D245" s="71"/>
+      <c r="E245" s="71"/>
+      <c r="F245" s="71"/>
+      <c r="G245" s="71"/>
+      <c r="H245" s="71"/>
+      <c r="I245" s="71"/>
+      <c r="J245" s="71"/>
+      <c r="K245" s="71"/>
+      <c r="L245" s="71"/>
+      <c r="M245" s="71"/>
+      <c r="N245" s="71"/>
+      <c r="O245" s="71"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="27"/>
@@ -5227,11 +5252,11 @@
       <c r="O254" s="25"/>
     </row>
     <row r="255" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="80"/>
-      <c r="B255" s="80"/>
-      <c r="C255" s="80"/>
-      <c r="D255" s="80"/>
-      <c r="E255" s="80"/>
+      <c r="A255" s="71"/>
+      <c r="B255" s="71"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="71"/>
+      <c r="E255" s="71"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
@@ -5360,21 +5385,21 @@
       <c r="B277" s="25"/>
     </row>
     <row r="278" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="80"/>
-      <c r="B278" s="80"/>
-      <c r="C278" s="80"/>
-      <c r="D278" s="80"/>
-      <c r="E278" s="80"/>
-      <c r="F278" s="80"/>
-      <c r="G278" s="80"/>
-      <c r="H278" s="80"/>
-      <c r="I278" s="80"/>
-      <c r="J278" s="80"/>
-      <c r="K278" s="80"/>
-      <c r="L278" s="80"/>
-      <c r="M278" s="80"/>
-      <c r="N278" s="80"/>
-      <c r="O278" s="80"/>
+      <c r="A278" s="71"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="71"/>
+      <c r="D278" s="71"/>
+      <c r="E278" s="71"/>
+      <c r="F278" s="71"/>
+      <c r="G278" s="71"/>
+      <c r="H278" s="71"/>
+      <c r="I278" s="71"/>
+      <c r="J278" s="71"/>
+      <c r="K278" s="71"/>
+      <c r="L278" s="71"/>
+      <c r="M278" s="71"/>
+      <c r="N278" s="71"/>
+      <c r="O278" s="71"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="27"/>
@@ -5530,11 +5555,11 @@
       <c r="O287" s="25"/>
     </row>
     <row r="288" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="80"/>
-      <c r="B288" s="80"/>
-      <c r="C288" s="80"/>
-      <c r="D288" s="80"/>
-      <c r="E288" s="80"/>
+      <c r="A288" s="71"/>
+      <c r="B288" s="71"/>
+      <c r="C288" s="71"/>
+      <c r="D288" s="71"/>
+      <c r="E288" s="71"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="27"/>
@@ -5663,21 +5688,21 @@
       <c r="B310" s="25"/>
     </row>
     <row r="311" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="80"/>
-      <c r="B311" s="80"/>
-      <c r="C311" s="80"/>
-      <c r="D311" s="80"/>
-      <c r="E311" s="80"/>
-      <c r="F311" s="80"/>
-      <c r="G311" s="80"/>
-      <c r="H311" s="80"/>
-      <c r="I311" s="80"/>
-      <c r="J311" s="80"/>
-      <c r="K311" s="80"/>
-      <c r="L311" s="80"/>
-      <c r="M311" s="80"/>
-      <c r="N311" s="80"/>
-      <c r="O311" s="80"/>
+      <c r="A311" s="71"/>
+      <c r="B311" s="71"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
+      <c r="E311" s="71"/>
+      <c r="F311" s="71"/>
+      <c r="G311" s="71"/>
+      <c r="H311" s="71"/>
+      <c r="I311" s="71"/>
+      <c r="J311" s="71"/>
+      <c r="K311" s="71"/>
+      <c r="L311" s="71"/>
+      <c r="M311" s="71"/>
+      <c r="N311" s="71"/>
+      <c r="O311" s="71"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="27"/>
@@ -5833,11 +5858,11 @@
       <c r="O320" s="25"/>
     </row>
     <row r="321" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="80"/>
-      <c r="B321" s="80"/>
-      <c r="C321" s="80"/>
-      <c r="D321" s="80"/>
-      <c r="E321" s="80"/>
+      <c r="A321" s="71"/>
+      <c r="B321" s="71"/>
+      <c r="C321" s="71"/>
+      <c r="D321" s="71"/>
+      <c r="E321" s="71"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="27"/>
@@ -5966,21 +5991,21 @@
       <c r="B343" s="25"/>
     </row>
     <row r="344" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="80"/>
-      <c r="B344" s="80"/>
-      <c r="C344" s="80"/>
-      <c r="D344" s="80"/>
-      <c r="E344" s="80"/>
-      <c r="F344" s="80"/>
-      <c r="G344" s="80"/>
-      <c r="H344" s="80"/>
-      <c r="I344" s="80"/>
-      <c r="J344" s="80"/>
-      <c r="K344" s="80"/>
-      <c r="L344" s="80"/>
-      <c r="M344" s="80"/>
-      <c r="N344" s="80"/>
-      <c r="O344" s="80"/>
+      <c r="A344" s="71"/>
+      <c r="B344" s="71"/>
+      <c r="C344" s="71"/>
+      <c r="D344" s="71"/>
+      <c r="E344" s="71"/>
+      <c r="F344" s="71"/>
+      <c r="G344" s="71"/>
+      <c r="H344" s="71"/>
+      <c r="I344" s="71"/>
+      <c r="J344" s="71"/>
+      <c r="K344" s="71"/>
+      <c r="L344" s="71"/>
+      <c r="M344" s="71"/>
+      <c r="N344" s="71"/>
+      <c r="O344" s="71"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="27"/>
@@ -6813,16 +6838,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
